--- a/data/20170127_GEP00001/20170127_GEP00001.xlsx
+++ b/data/20170127_GEP00001/20170127_GEP00001.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Target" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Guide" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="OffTargetInformation" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="GuideMismatches" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="AmpliconSelection" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="ExperimentLayout" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Plate" sheetId="7" state="visible" r:id="rId8"/>
@@ -28,1482 +28,1482 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="492">
-  <si>
-    <t>geid</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>scientist</t>
-  </si>
-  <si>
-    <t>institute</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>group_leader</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>GEP00001</t>
-  </si>
-  <si>
-    <t>STAT3KO</t>
-  </si>
-  <si>
-    <t>Rasmus Siersbaek</t>
-  </si>
-  <si>
-    <t>CRUKCI</t>
-  </si>
-  <si>
-    <t>Carroll Group</t>
-  </si>
-  <si>
-    <t>Jason Carroll</t>
-  </si>
-  <si>
-    <t>SpCas9 KO of STAT3 gene in clone3 (MCF7) cells</t>
-  </si>
-  <si>
-    <t>project_geid</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>assembly</t>
-  </si>
-  <si>
-    <t>gene_id</t>
-  </si>
-  <si>
-    <t>chromosome</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>strand</t>
-  </si>
-  <si>
-    <t>STAT3</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>GRCh37.p13</t>
-  </si>
-  <si>
-    <t>NC_000017.10</t>
-  </si>
-  <si>
-    <t>reverse</t>
-  </si>
-  <si>
-    <t>The protein encoded by this gene is a member of the STAT protein family. In response to cytokines and growth factors, STAT family members are phosphorylated by the receptor associated kinases, and then form homo- or heterodimers that translocate to the cell nucleus where they act as transcription activators. This protein is activated through phosphorylation in response to various cytokines and growth factors including IFNs, EGF, IL5, IL6, HGF, LIF and BMP2. This protein mediates the expression of a variety of genes in response to cell stimuli, and thus plays a key role in many cellular processes such as cell growth and apoptosis. The small GTPase Rac1 has been shown to bind and regulate the activity of this protein. PIAS3 protein is a specific inhibitor of this protein. Mutations in this gene are associated with infantile-onset multisystem autoimmune disease and hyper-immunoglobulin E syndrome. Alternative splicing results in multiple transcript variants encoding distinct isoforms</t>
-  </si>
-  <si>
-    <t>target_name</t>
-  </si>
-  <si>
-    <t>guide_sequence</t>
-  </si>
-  <si>
-    <t>pam_sequence</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>exon</t>
-  </si>
-  <si>
-    <t>nuclease</t>
-  </si>
-  <si>
-    <t>STAT3.1</t>
-  </si>
-  <si>
-    <t>GAGATTATGAAACACCAAAG</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>Cas9</t>
-  </si>
-  <si>
-    <t>STAT3.2</t>
-  </si>
-  <si>
-    <t>TCTACAGACTGCAGCCACTG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>STAT3.3</t>
-  </si>
-  <si>
-    <t>GAAGGCGTGATTCTTCCCAC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>STAT3.4</t>
-  </si>
-  <si>
-    <t>AGATTGCCCGGATTGTGGCC</t>
-  </si>
-  <si>
-    <t>guide_name</t>
-  </si>
-  <si>
-    <t>is_off_target_coding_region</t>
-  </si>
-  <si>
-    <t>regions</t>
-  </si>
-  <si>
-    <t>mismatches</t>
-  </si>
-  <si>
-    <t>experiment_type</t>
-  </si>
-  <si>
-    <t>guide_location</t>
-  </si>
-  <si>
-    <t>guide_strand</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>amplicon_name</t>
-  </si>
-  <si>
-    <t>is_on_target</t>
-  </si>
-  <si>
-    <t>dna_feature</t>
-  </si>
-  <si>
-    <t>primer_geid</t>
-  </si>
-  <si>
-    <t>primer_sequence</t>
-  </si>
-  <si>
-    <t>primer_strand</t>
-  </si>
-  <si>
-    <t>primer_start</t>
-  </si>
-  <si>
-    <t>primer_end</t>
-  </si>
-  <si>
-    <t>Knock-out</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>STAT3.1.in</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>gene</t>
-  </si>
-  <si>
-    <t>RA10_193</t>
-  </si>
-  <si>
-    <t>TTGTGCTGATAGAGAACATTCGAC</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>Template preparation [either gDNA; or cells from IncellWestern in 50 ul PBS O/N at 50C, added 1ul proteinase K and incubation for 1h at 50C, transfer to PCR plate and inactivation for 10 min at 95C and use 2ul for PCR]. PCR mix composition [1 U FastStart (Roche), 200 uM dNTPs, 0.1 uM each primer, 4.5 mM MgCl2, 10 ng gDNA), amplification protocol (95C 2min, 32x (95C 20s, 58C 20s, 72C 15s), 72C 3 min for gDNA, or 36x with proteinase K-treated cells, no primer multiplexing)]</t>
-  </si>
-  <si>
-    <t>STAT3.1.off1</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>RA21_204</t>
-  </si>
-  <si>
-    <t>CAGGCCCAACACAGAGATACTTT</t>
-  </si>
-  <si>
-    <t>STAT3.1.off2</t>
-  </si>
-  <si>
-    <t>RA23_206</t>
-  </si>
-  <si>
-    <t>TGGGCTCTCTCATCTGCGT</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>STAT3.2.in</t>
-  </si>
-  <si>
-    <t>RA12_195</t>
-  </si>
-  <si>
-    <t>CTCCCAGACCAGGGATTTGT</t>
-  </si>
-  <si>
-    <t>STAT3.2.off1</t>
-  </si>
-  <si>
-    <t>RA13_196</t>
-  </si>
-  <si>
-    <t>CTGGAAAGGATGTCTCCACCC</t>
-  </si>
-  <si>
-    <t>STAT3.2.off2</t>
-  </si>
-  <si>
-    <t>RA15_198</t>
-  </si>
-  <si>
-    <t>GCCCCTGGAGTAGAGGACAT</t>
-  </si>
-  <si>
-    <t>STAT3.3.in</t>
-  </si>
-  <si>
-    <t>STAT3.3.off1</t>
-  </si>
-  <si>
-    <t>RA17_200</t>
-  </si>
-  <si>
-    <t>CCACACAATGAACCCTAAGCATT</t>
-  </si>
-  <si>
-    <t>STAT3.3.off2</t>
-  </si>
-  <si>
-    <t>RA19_202</t>
-  </si>
-  <si>
-    <t>GACGTGTGTCGGAATATTTATGGT</t>
-  </si>
-  <si>
-    <t>STAT3.4.in</t>
-  </si>
-  <si>
-    <t>RA9_192</t>
-  </si>
-  <si>
-    <t>TGTGTGTATGCGTCGGCTT</t>
-  </si>
-  <si>
-    <t>RA22_205</t>
-  </si>
-  <si>
-    <t>TGTTCTTGCACTGCTTCATCAC</t>
-  </si>
-  <si>
-    <t>RA24_207</t>
-  </si>
-  <si>
-    <t>GCGCTTCAGGACAACTCTTTC</t>
-  </si>
-  <si>
-    <t>RA11_194</t>
-  </si>
-  <si>
-    <t>CACAGTTCAGTCCACATCTCCA</t>
-  </si>
-  <si>
-    <t>RA14_197</t>
-  </si>
-  <si>
-    <t>AGGTATGTGGTGCTGGACCT</t>
-  </si>
-  <si>
-    <t>RA16_199</t>
-  </si>
-  <si>
-    <t>AGGGGCAGCAGTCTCTAGAA</t>
-  </si>
-  <si>
-    <t>RA18_201</t>
-  </si>
-  <si>
-    <t>CATATTTCTGCCAACCTCTTCCC</t>
-  </si>
-  <si>
-    <t>RA20_203</t>
-  </si>
-  <si>
-    <t>TCCCTTTGGAAGCAGTCTTGTAT</t>
-  </si>
-  <si>
-    <t>well_position</t>
-  </si>
-  <si>
-    <t>cell_line_name</t>
-  </si>
-  <si>
-    <t>clone_name</t>
-  </si>
-  <si>
-    <t>replicate_group</t>
-  </si>
-  <si>
-    <t>is_control</t>
-  </si>
-  <si>
-    <t>content_type</t>
-  </si>
-  <si>
-    <t>GEP00001_01</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>MCF7</t>
-  </si>
-  <si>
-    <t>clone3</t>
-  </si>
-  <si>
-    <t>normalisation</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>GEP00001_02</t>
-  </si>
-  <si>
-    <t>GEP00001_03</t>
-  </si>
-  <si>
-    <t>GEP00001_04</t>
-  </si>
-  <si>
-    <t>GEP00001_05</t>
-  </si>
-  <si>
-    <t>GEP00001_06</t>
-  </si>
-  <si>
-    <t>background</t>
-  </si>
-  <si>
-    <t>Wild-type</t>
-  </si>
-  <si>
-    <t>plate_barcode</t>
-  </si>
-  <si>
-    <t>GEP00001_01_incu</t>
-  </si>
-  <si>
-    <t>This is a plate to do incucyte and then freeze, possibly with Biorepository</t>
-  </si>
-  <si>
-    <t>GEP00001_02_incu</t>
-  </si>
-  <si>
-    <t>GEP00001_03_incu</t>
-  </si>
-  <si>
-    <t>GEP00001_04_incu</t>
-  </si>
-  <si>
-    <t>GEP00001_05_incu</t>
-  </si>
-  <si>
-    <t>GEP00001_06_incu</t>
-  </si>
-  <si>
-    <t>GEP00001_01_ICW</t>
-  </si>
-  <si>
-    <t>Incell Western. This plate will be temporarily stored.</t>
-  </si>
-  <si>
-    <t>GEP00001_02_ICW</t>
-  </si>
-  <si>
-    <t>GEP00001_03_ICW</t>
-  </si>
-  <si>
-    <t>GEP00001_04_ICW</t>
-  </si>
-  <si>
-    <t>GEP00001_05_ICW</t>
-  </si>
-  <si>
-    <t>GEP00001_06_ICW</t>
-  </si>
-  <si>
-    <t>GEP00001_01_PCR</t>
-  </si>
-  <si>
-    <t>PCR plate, temporarily stored</t>
-  </si>
-  <si>
-    <t>GEP00001_02_PCR</t>
-  </si>
-  <si>
-    <t>GEP00001_01_dilution</t>
-  </si>
-  <si>
-    <t>PCR dilution 1:150 for indexing, temporarily stored</t>
-  </si>
-  <si>
-    <t>GEP00001_02_dilution</t>
-  </si>
-  <si>
-    <t>GEP00001_01_NGS</t>
-  </si>
-  <si>
-    <t>This plate will be temporarily stored, until sequencing library confirmed OK</t>
-  </si>
-  <si>
-    <t>GEP00001_02_NGS</t>
-  </si>
-  <si>
-    <t>experiment_layout_geid</t>
-  </si>
-  <si>
-    <t>dna_source</t>
-  </si>
-  <si>
-    <t>slxid</t>
-  </si>
-  <si>
-    <t>library_type</t>
-  </si>
-  <si>
-    <t>barcode_size</t>
-  </si>
-  <si>
-    <t>sequencing_barcode</t>
-  </si>
-  <si>
-    <t>sequencing_sample_name</t>
-  </si>
-  <si>
-    <t>fixed cells</t>
-  </si>
-  <si>
-    <t>SLX-13775</t>
-  </si>
-  <si>
-    <t>Fluidigm</t>
-  </si>
-  <si>
-    <t>FLD0193</t>
-  </si>
-  <si>
-    <t>GE-P1B4-C</t>
-  </si>
-  <si>
-    <t>FLD0194</t>
-  </si>
-  <si>
-    <t>GE-P1B5-C</t>
-  </si>
-  <si>
-    <t>FLD0195</t>
-  </si>
-  <si>
-    <t>GE-P1B6-C</t>
-  </si>
-  <si>
-    <t>FLD0196</t>
-  </si>
-  <si>
-    <t>GE-P1B7-C</t>
-  </si>
-  <si>
-    <t>FLD0197</t>
-  </si>
-  <si>
-    <t>GE-P1B8-C</t>
-  </si>
-  <si>
-    <t>FLD0198</t>
-  </si>
-  <si>
-    <t>GE-P1B9-C</t>
-  </si>
-  <si>
-    <t>FLD0199</t>
-  </si>
-  <si>
-    <t>GE-P1B10-C</t>
-  </si>
-  <si>
-    <t>FLD0200</t>
-  </si>
-  <si>
-    <t>GE-P1B11-C</t>
-  </si>
-  <si>
-    <t>FLD0201</t>
-  </si>
-  <si>
-    <t>GE-P1C4-C</t>
-  </si>
-  <si>
-    <t>FLD0202</t>
-  </si>
-  <si>
-    <t>GE-P1C5-C</t>
-  </si>
-  <si>
-    <t>FLD0203</t>
-  </si>
-  <si>
-    <t>GE-P1C6-C</t>
-  </si>
-  <si>
-    <t>FLD0204</t>
-  </si>
-  <si>
-    <t>GE-P1C7-C</t>
-  </si>
-  <si>
-    <t>FLD0205</t>
-  </si>
-  <si>
-    <t>GE-P1C8-C</t>
-  </si>
-  <si>
-    <t>FLD0206</t>
-  </si>
-  <si>
-    <t>GE-P1C9-C</t>
-  </si>
-  <si>
-    <t>FLD0207</t>
-  </si>
-  <si>
-    <t>GE-P1C10-C</t>
-  </si>
-  <si>
-    <t>FLD0208</t>
-  </si>
-  <si>
-    <t>GE-P1C11-C</t>
-  </si>
-  <si>
-    <t>FLD0209</t>
-  </si>
-  <si>
-    <t>GE-P1E2-C</t>
-  </si>
-  <si>
-    <t>FLD0210</t>
-  </si>
-  <si>
-    <t>GE-P1E3-C</t>
-  </si>
-  <si>
-    <t>FLD0211</t>
-  </si>
-  <si>
-    <t>GE-P1E4-C</t>
-  </si>
-  <si>
-    <t>FLD0212</t>
-  </si>
-  <si>
-    <t>GE-P1E5-C</t>
-  </si>
-  <si>
-    <t>FLD0213</t>
-  </si>
-  <si>
-    <t>GE-P1E6-C</t>
-  </si>
-  <si>
-    <t>FLD0214</t>
-  </si>
-  <si>
-    <t>GE-P1E7-C</t>
-  </si>
-  <si>
-    <t>FLD0215</t>
-  </si>
-  <si>
-    <t>GE-P1E8-C</t>
-  </si>
-  <si>
-    <t>FLD0216</t>
-  </si>
-  <si>
-    <t>GE-P1E9-C</t>
-  </si>
-  <si>
-    <t>FLD0217</t>
-  </si>
-  <si>
-    <t>GE-P2D4-C</t>
-  </si>
-  <si>
-    <t>FLD0218</t>
-  </si>
-  <si>
-    <t>GE-P2D5-C</t>
-  </si>
-  <si>
-    <t>FLD0219</t>
-  </si>
-  <si>
-    <t>GE-P2D6-C</t>
-  </si>
-  <si>
-    <t>FLD0220</t>
-  </si>
-  <si>
-    <t>GE-P2D7-C</t>
-  </si>
-  <si>
-    <t>FLD0221</t>
-  </si>
-  <si>
-    <t>GE-P2D8-C</t>
-  </si>
-  <si>
-    <t>FLD0222</t>
-  </si>
-  <si>
-    <t>GE-P2D9-C</t>
-  </si>
-  <si>
-    <t>FLD0223</t>
-  </si>
-  <si>
-    <t>GE-P2D10-C</t>
-  </si>
-  <si>
-    <t>FLD0224</t>
-  </si>
-  <si>
-    <t>GE-P2D11-C</t>
-  </si>
-  <si>
-    <t>FLD0225</t>
-  </si>
-  <si>
-    <t>GE-P2E4-C</t>
-  </si>
-  <si>
-    <t>FLD0226</t>
-  </si>
-  <si>
-    <t>GE-P2E5-C</t>
-  </si>
-  <si>
-    <t>FLD0227</t>
-  </si>
-  <si>
-    <t>GE-P2E6-C</t>
-  </si>
-  <si>
-    <t>FLD0228</t>
-  </si>
-  <si>
-    <t>GE-P2E7-C</t>
-  </si>
-  <si>
-    <t>FLD0229</t>
-  </si>
-  <si>
-    <t>GE-P2E8-C</t>
-  </si>
-  <si>
-    <t>FLD0230</t>
-  </si>
-  <si>
-    <t>GE-P2E9-C</t>
-  </si>
-  <si>
-    <t>FLD0231</t>
-  </si>
-  <si>
-    <t>GE-P2E10-C</t>
-  </si>
-  <si>
-    <t>FLD0232</t>
-  </si>
-  <si>
-    <t>GE-P2E11-C</t>
-  </si>
-  <si>
-    <t>FLD0233</t>
-  </si>
-  <si>
-    <t>GE-P2F4-C</t>
-  </si>
-  <si>
-    <t>FLD0234</t>
-  </si>
-  <si>
-    <t>GE-P2F5-C</t>
-  </si>
-  <si>
-    <t>FLD0235</t>
-  </si>
-  <si>
-    <t>GE-P2F6-C</t>
-  </si>
-  <si>
-    <t>FLD0236</t>
-  </si>
-  <si>
-    <t>GE-P2F7-C</t>
-  </si>
-  <si>
-    <t>FLD0237</t>
-  </si>
-  <si>
-    <t>GE-P2F8-C</t>
-  </si>
-  <si>
-    <t>FLD0238</t>
-  </si>
-  <si>
-    <t>GE-P2F9-C</t>
-  </si>
-  <si>
-    <t>FLD0239</t>
-  </si>
-  <si>
-    <t>GE-P2F10-C</t>
-  </si>
-  <si>
-    <t>FLD0240</t>
-  </si>
-  <si>
-    <t>GE-P2F11-C</t>
-  </si>
-  <si>
-    <t>FLD0241</t>
-  </si>
-  <si>
-    <t>GE-P3B4-C</t>
-  </si>
-  <si>
-    <t>FLD0242</t>
-  </si>
-  <si>
-    <t>GE-P3B5-C</t>
-  </si>
-  <si>
-    <t>FLD0243</t>
-  </si>
-  <si>
-    <t>GE-P3B6-C</t>
-  </si>
-  <si>
-    <t>FLD0244</t>
-  </si>
-  <si>
-    <t>GE-P3B7-C</t>
-  </si>
-  <si>
-    <t>FLD0245</t>
-  </si>
-  <si>
-    <t>GE-P3B8-C</t>
-  </si>
-  <si>
-    <t>FLD0246</t>
-  </si>
-  <si>
-    <t>GE-P3B9-C</t>
-  </si>
-  <si>
-    <t>FLD0247</t>
-  </si>
-  <si>
-    <t>GE-P3B10-C</t>
-  </si>
-  <si>
-    <t>FLD0248</t>
-  </si>
-  <si>
-    <t>GE-P3B11-C</t>
-  </si>
-  <si>
-    <t>FLD0249</t>
-  </si>
-  <si>
-    <t>GE-P3C2-C</t>
-  </si>
-  <si>
-    <t>FLD0250</t>
-  </si>
-  <si>
-    <t>GE-P3C3-C</t>
-  </si>
-  <si>
-    <t>FLD0251</t>
-  </si>
-  <si>
-    <t>GE-P3C4-C</t>
-  </si>
-  <si>
-    <t>FLD0252</t>
-  </si>
-  <si>
-    <t>GE-P3C5-C</t>
-  </si>
-  <si>
-    <t>FLD0253</t>
-  </si>
-  <si>
-    <t>GE-P3C6-C</t>
-  </si>
-  <si>
-    <t>FLD0254</t>
-  </si>
-  <si>
-    <t>GE-P3C7-C</t>
-  </si>
-  <si>
-    <t>FLD0255</t>
-  </si>
-  <si>
-    <t>GE-P3C8-C</t>
-  </si>
-  <si>
-    <t>FLD0256</t>
-  </si>
-  <si>
-    <t>GE-P3C9-C</t>
-  </si>
-  <si>
-    <t>FLD0257</t>
-  </si>
-  <si>
-    <t>GE-P3D4-C</t>
-  </si>
-  <si>
-    <t>FLD0258</t>
-  </si>
-  <si>
-    <t>GE-P3D5-C</t>
-  </si>
-  <si>
-    <t>FLD0259</t>
-  </si>
-  <si>
-    <t>GE-P3D6-C</t>
-  </si>
-  <si>
-    <t>FLD0260</t>
-  </si>
-  <si>
-    <t>GE-P3D7-C</t>
-  </si>
-  <si>
-    <t>FLD0261</t>
-  </si>
-  <si>
-    <t>GE-P3D8-C</t>
-  </si>
-  <si>
-    <t>FLD0262</t>
-  </si>
-  <si>
-    <t>GE-P3D9-C</t>
-  </si>
-  <si>
-    <t>FLD0263</t>
-  </si>
-  <si>
-    <t>GE-P3D10-C</t>
-  </si>
-  <si>
-    <t>FLD0264</t>
-  </si>
-  <si>
-    <t>GE-P3D11-C</t>
-  </si>
-  <si>
-    <t>FLD0265</t>
-  </si>
-  <si>
-    <t>GE-P4B2-C</t>
-  </si>
-  <si>
-    <t>FLD0266</t>
-  </si>
-  <si>
-    <t>GE-P4B3-C</t>
-  </si>
-  <si>
-    <t>FLD0267</t>
-  </si>
-  <si>
-    <t>GE-P4B4-C</t>
-  </si>
-  <si>
-    <t>FLD0268</t>
-  </si>
-  <si>
-    <t>GE-P4B5-C</t>
-  </si>
-  <si>
-    <t>FLD0269</t>
-  </si>
-  <si>
-    <t>GE-P4B6-C</t>
-  </si>
-  <si>
-    <t>FLD0270</t>
-  </si>
-  <si>
-    <t>GE-P4B7-C</t>
-  </si>
-  <si>
-    <t>FLD0271</t>
-  </si>
-  <si>
-    <t>GE-P4B8-C</t>
-  </si>
-  <si>
-    <t>FLD0272</t>
-  </si>
-  <si>
-    <t>GE-P4B9-C</t>
-  </si>
-  <si>
-    <t>FLD0273</t>
-  </si>
-  <si>
-    <t>GE-P4C2-C</t>
-  </si>
-  <si>
-    <t>FLD0274</t>
-  </si>
-  <si>
-    <t>GE-P4C3-C</t>
-  </si>
-  <si>
-    <t>FLD0275</t>
-  </si>
-  <si>
-    <t>GE-P4C4-C</t>
-  </si>
-  <si>
-    <t>FLD0276</t>
-  </si>
-  <si>
-    <t>GE-P4C5-C</t>
-  </si>
-  <si>
-    <t>FLD0277</t>
-  </si>
-  <si>
-    <t>GE-P4C6-C</t>
-  </si>
-  <si>
-    <t>FLD0278</t>
-  </si>
-  <si>
-    <t>GE-P4C7-C</t>
-  </si>
-  <si>
-    <t>FLD0279</t>
-  </si>
-  <si>
-    <t>GE-P4C8-C</t>
-  </si>
-  <si>
-    <t>FLD0280</t>
-  </si>
-  <si>
-    <t>GE-P4C9-C</t>
-  </si>
-  <si>
-    <t>FLD0281</t>
-  </si>
-  <si>
-    <t>GE-P4D2-C</t>
-  </si>
-  <si>
-    <t>FLD0282</t>
-  </si>
-  <si>
-    <t>GE-P4D3-C</t>
-  </si>
-  <si>
-    <t>FLD0283</t>
-  </si>
-  <si>
-    <t>GE-P4D4-C</t>
-  </si>
-  <si>
-    <t>FLD0284</t>
-  </si>
-  <si>
-    <t>GE-P4D5-C</t>
-  </si>
-  <si>
-    <t>FLD0285</t>
-  </si>
-  <si>
-    <t>GE-P4D6-C</t>
-  </si>
-  <si>
-    <t>FLD0286</t>
-  </si>
-  <si>
-    <t>GE-P4D7-C</t>
-  </si>
-  <si>
-    <t>FLD0287</t>
-  </si>
-  <si>
-    <t>GE-P4D8-C</t>
-  </si>
-  <si>
-    <t>FLD0288</t>
-  </si>
-  <si>
-    <t>GE-P4D9-C</t>
-  </si>
-  <si>
-    <t>gDNA</t>
-  </si>
-  <si>
-    <t>FLD0290</t>
-  </si>
-  <si>
-    <t>GE-P3B9-G</t>
-  </si>
-  <si>
-    <t>FLD0291</t>
-  </si>
-  <si>
-    <t>GE-P3C3-G</t>
-  </si>
-  <si>
-    <t>FLD0292</t>
-  </si>
-  <si>
-    <t>GE-P3D9-G</t>
-  </si>
-  <si>
-    <t>FLD0293</t>
-  </si>
-  <si>
-    <t>GE-P4B5-G</t>
-  </si>
-  <si>
-    <t>FLD0294</t>
-  </si>
-  <si>
-    <t>GE-P4B6-G</t>
-  </si>
-  <si>
-    <t>FLD0295</t>
-  </si>
-  <si>
-    <t>GE-P1C5-G</t>
-  </si>
-  <si>
-    <t>FLD0296</t>
-  </si>
-  <si>
-    <t>GE-P1C9-G</t>
-  </si>
-  <si>
-    <t>FLD0297</t>
-  </si>
-  <si>
-    <t>GE-P1E2-G</t>
-  </si>
-  <si>
-    <t>FLD0298</t>
-  </si>
-  <si>
-    <t>GE-P2D9-G</t>
-  </si>
-  <si>
-    <t>FLD0299</t>
-  </si>
-  <si>
-    <t>GE-P2F8-G</t>
-  </si>
-  <si>
-    <t>FLD0300</t>
-  </si>
-  <si>
-    <t>GE-P6B4-G</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Results_guide</t>
-  </si>
-  <si>
-    <t>Results_clone</t>
-  </si>
-  <si>
-    <t>Results_indel</t>
-  </si>
-  <si>
-    <t>Results_aminoacid</t>
-  </si>
-  <si>
-    <t>Results_impactonprotein</t>
-  </si>
-  <si>
-    <t>Results_protein</t>
-  </si>
-  <si>
-    <t>Results_growthrate</t>
-  </si>
-  <si>
-    <t>Tracking_ID</t>
-  </si>
-  <si>
-    <t>which clones are delivered</t>
-  </si>
-  <si>
-    <t>e.g. frameshift. This could be a ‘notes’ field</t>
-  </si>
-  <si>
-    <t>ICW data</t>
-  </si>
-  <si>
-    <t>incucyte data, slope</t>
-  </si>
-  <si>
-    <t>linked to tab ‘Tracking’</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4435" uniqueCount="492">
+  <si>
+    <t xml:space="preserve">geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasmus Siersbaek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUKCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carroll Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Carroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpCas9 KO of STAT3 gene in clone3 (MCF7) cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRCh37.p13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000017.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The protein encoded by this gene is a member of the STAT protein family. In response to cytokines and growth factors, STAT family members are phosphorylated by the receptor associated kinases, and then form homo- or heterodimers that translocate to the cell nucleus where they act as transcription activators. This protein is activated through phosphorylation in response to various cytokines and growth factors including IFNs, EGF, IL5, IL6, HGF, LIF and BMP2. This protein mediates the expression of a variety of genes in response to cell stimuli, and thus plays a key role in many cellular processes such as cell growth and apoptosis. The small GTPase Rac1 has been shown to bind and regulate the activity of this protein. PIAS3 protein is a specific inhibitor of this protein. Mutations in this gene are associated with infantile-onset multisystem autoimmune disease and hyper-immunoglobulin E syndrome. Alternative splicing results in multiple transcript variants encoding distinct isoforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pam_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGATTATGAAACACCAAAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cas9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCTACAGACTGCAGCCACTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAAGGCGTGATTCTTCCCAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGATTGCCCGGATTGTGGCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_off_target_coding_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mismatches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide_strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amplicon_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_on_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dna_feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knock-out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.1.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA10_193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTGTGCTGATAGAGAACATTCGAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template preparation [either gDNA; or cells from IncellWestern in 50 ul PBS O/N at 50C, added 1ul proteinase K and incubation for 1h at 50C, transfer to PCR plate and inactivation for 10 min at 95C and use 2ul for PCR]. PCR mix composition [1 U FastStart (Roche), 200 uM dNTPs, 0.1 uM each primer, 4.5 mM MgCl2, 10 ng gDNA), amplification protocol (95C 2min, 32x (95C 20s, 58C 20s, 72C 15s), 72C 3 min for gDNA, or 36x with proteinase K-treated cells, no primer multiplexing)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.1.off1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA21_204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAGGCCCAACACAGAGATACTTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.1.off2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA23_206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGGGCTCTCTCATCTGCGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.2.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA12_195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTCCCAGACCAGGGATTTGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.2.off1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA13_196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTGGAAAGGATGTCTCCACCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.2.off2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA15_198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCCCTGGAGTAGAGGACAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.3.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.3.off1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA17_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCACACAATGAACCCTAAGCATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.3.off2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA19_202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACGTGTGTCGGAATATTTATGGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.4.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA9_192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGTGTGTATGCGTCGGCTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA22_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGTTCTTGCACTGCTTCATCAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA24_207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCGCTTCAGGACAACTCTTTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA11_194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACAGTTCAGTCCACATCTCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA14_197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGGTATGTGGTGCTGGACCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA16_199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGGGGCAGCAGTCTCTAGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA18_201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATATTTCTGCCAACCTCTTCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA20_203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCCTTTGGAAGCAGTCTTGTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_line_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clone_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replicate_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clone3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment_layout_geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate_barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_01_incu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a plate to do incucyte and then freeze, possibly with Biorepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_02_incu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_03_incu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_04_incu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_05_incu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_06_incu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_01_ICW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incell Western. This plate will be temporarily stored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_02_ICW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_03_ICW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_04_ICW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_05_ICW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_06_ICW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_01_PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR plate, temporarily stored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_02_PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_01_dilution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR dilution 1:150 for indexing, temporarily stored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_02_dilution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_01_NGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This plate will be temporarily stored, until sequencing library confirmed OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEP00001_02_NGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dna_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slxid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">library_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequencing_barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequencing_sample_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLX-13775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluidigm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B11-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C11-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E2-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E3-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D11-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E11-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F11-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B11-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C2-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C3-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D11-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B2-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B3-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4C2-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4C3-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4C4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4C5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4C6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4C7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4C8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4C9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4D2-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4D3-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4D4-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4D5-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4D6-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4D7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4D8-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4D9-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B9-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C3-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D9-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B5-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B6-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C5-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C9-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E2-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D9-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F8-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P6B4-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_clone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_indel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_aminoacid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_impactonprotein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_growthrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which clones are delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. frameshift. This could be a ‘notes’ field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICW data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incucyte data, slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked to tab ‘Tracking’</t>
   </si>
 </sst>
 </file>
@@ -1511,14 +1511,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1535,24 +1536,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CC99"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1564,7 +1554,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1588,9 +1578,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1599,88 +1588,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Untitled2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF99CC99"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1691,18 +1611,18 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,7 +1680,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1775,17 +1695,17 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,7 +1775,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1870,17 +1790,17 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,7 +1921,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2016,15 +1936,15 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,7 +1965,7 @@
       <c r="A2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2060,7 +1980,7 @@
       <c r="A3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2075,7 +1995,7 @@
       <c r="A4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2090,7 +2010,7 @@
       <c r="A5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2105,7 +2025,7 @@
       <c r="A6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2120,7 +2040,7 @@
       <c r="A7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2135,7 +2055,7 @@
       <c r="A8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2150,7 +2070,7 @@
       <c r="A9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2165,7 +2085,7 @@
       <c r="A10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2180,7 +2100,7 @@
       <c r="A11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2195,7 +2115,7 @@
       <c r="A12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2210,7 +2130,7 @@
       <c r="A13" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2225,7 +2145,7 @@
       <c r="A14" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2240,7 +2160,7 @@
       <c r="A15" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2255,7 +2175,7 @@
       <c r="A16" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2270,7 +2190,7 @@
       <c r="A17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2285,7 +2205,7 @@
       <c r="A18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2300,7 +2220,7 @@
       <c r="A19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2315,7 +2235,7 @@
       <c r="A20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2330,7 +2250,7 @@
       <c r="A21" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2345,7 +2265,7 @@
       <c r="A22" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2360,7 +2280,7 @@
       <c r="A23" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2375,7 +2295,7 @@
       <c r="A24" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2390,7 +2310,7 @@
       <c r="A25" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2404,7 +2324,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2417,31 +2337,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.9234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.969387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.4897959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5459183673469"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="31.6785714285714"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="31.7704081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="31.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2430,7 @@
       <c r="F2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -2519,10 +2439,10 @@
       <c r="I2" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L2" s="0" t="s">
@@ -2537,7 +2457,6 @@
       <c r="O2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -2555,16 +2474,16 @@
       <c r="F3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L3" s="0" t="s">
@@ -2579,7 +2498,6 @@
       <c r="O3" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -2597,16 +2515,16 @@
       <c r="F4" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L4" s="0" t="s">
@@ -2621,7 +2539,6 @@
       <c r="O4" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -2642,7 +2559,7 @@
       <c r="F5" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -2651,10 +2568,10 @@
       <c r="I5" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L5" s="0" t="s">
@@ -2669,7 +2586,6 @@
       <c r="O5" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2687,16 +2603,16 @@
       <c r="F6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L6" s="0" t="s">
@@ -2711,7 +2627,6 @@
       <c r="O6" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2729,16 +2644,16 @@
       <c r="F7" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L7" s="0" t="s">
@@ -2753,7 +2668,6 @@
       <c r="O7" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -2774,7 +2688,7 @@
       <c r="F8" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -2783,10 +2697,10 @@
       <c r="I8" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="0" t="s">
@@ -2801,7 +2715,6 @@
       <c r="O8" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -2819,16 +2732,16 @@
       <c r="F9" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L9" s="0" t="s">
@@ -2843,7 +2756,6 @@
       <c r="O9" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2861,16 +2773,16 @@
       <c r="F10" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>96</v>
       </c>
       <c r="L10" s="0" t="s">
@@ -2885,7 +2797,6 @@
       <c r="O10" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2906,16 +2817,16 @@
       <c r="F11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L11" s="0" t="s">
@@ -2930,7 +2841,6 @@
       <c r="O11" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2951,7 +2861,7 @@
       <c r="F12" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -2960,10 +2870,10 @@
       <c r="I12" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L12" s="0" t="s">
@@ -2978,7 +2888,6 @@
       <c r="O12" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -2996,16 +2905,16 @@
       <c r="F13" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="1" t="s">
         <v>101</v>
       </c>
       <c r="L13" s="0" t="s">
@@ -3020,7 +2929,6 @@
       <c r="O13" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -3038,16 +2946,16 @@
       <c r="F14" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L14" s="0" t="s">
@@ -3062,7 +2970,6 @@
       <c r="O14" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -3083,7 +2990,7 @@
       <c r="F15" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H15" s="0" t="s">
@@ -3092,10 +2999,10 @@
       <c r="I15" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L15" s="0" t="s">
@@ -3127,16 +3034,16 @@
       <c r="F16" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="1" t="s">
         <v>107</v>
       </c>
       <c r="L16" s="0" t="s">
@@ -3168,16 +3075,16 @@
       <c r="F17" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="1" t="s">
         <v>109</v>
       </c>
       <c r="L17" s="0" t="s">
@@ -3212,7 +3119,7 @@
       <c r="F18" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H18" s="0" t="s">
@@ -3221,10 +3128,10 @@
       <c r="I18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L18" s="0" t="s">
@@ -3256,16 +3163,16 @@
       <c r="F19" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="1" t="s">
         <v>111</v>
       </c>
       <c r="L19" s="0" t="s">
@@ -3297,16 +3204,16 @@
       <c r="F20" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="1" t="s">
         <v>113</v>
       </c>
       <c r="L20" s="0" t="s">
@@ -3341,16 +3248,16 @@
       <c r="F21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L21" s="0" t="s">
@@ -3369,7 +3276,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3384,19 +3291,19 @@
   </sheetPr>
   <dimension ref="A1:I577"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9489795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="18.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,7 +3354,7 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3645,7 +3552,7 @@
       <c r="G15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3675,7 +3582,7 @@
       <c r="G16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3705,7 +3612,7 @@
       <c r="G17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3735,7 +3642,7 @@
       <c r="G18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3765,7 +3672,7 @@
       <c r="G19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3795,7 +3702,7 @@
       <c r="G20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3825,7 +3732,7 @@
       <c r="G21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3855,7 +3762,7 @@
       <c r="G22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3885,7 +3792,7 @@
       <c r="G23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3915,7 +3822,7 @@
       <c r="G24" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3973,7 +3880,7 @@
       <c r="G27" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4003,7 +3910,7 @@
       <c r="G28" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4033,7 +3940,7 @@
       <c r="G29" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4063,7 +3970,7 @@
       <c r="G30" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4093,7 +4000,7 @@
       <c r="G31" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4123,7 +4030,7 @@
       <c r="G32" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4153,7 +4060,7 @@
       <c r="G33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4183,7 +4090,7 @@
       <c r="G34" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4213,7 +4120,7 @@
       <c r="G35" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4243,7 +4150,7 @@
       <c r="G36" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4301,7 +4208,7 @@
       <c r="G39" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4331,7 +4238,7 @@
       <c r="G40" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4361,7 +4268,7 @@
       <c r="G41" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4391,7 +4298,7 @@
       <c r="G42" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4421,7 +4328,7 @@
       <c r="G43" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4451,7 +4358,7 @@
       <c r="G44" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4481,7 +4388,7 @@
       <c r="G45" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4511,7 +4418,7 @@
       <c r="G46" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4541,7 +4448,7 @@
       <c r="G47" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4571,7 +4478,7 @@
       <c r="G48" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4629,7 +4536,7 @@
       <c r="G51" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4659,7 +4566,7 @@
       <c r="G52" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4689,7 +4596,7 @@
       <c r="G53" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4719,7 +4626,7 @@
       <c r="G54" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4749,7 +4656,7 @@
       <c r="G55" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4779,7 +4686,7 @@
       <c r="G56" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4809,7 +4716,7 @@
       <c r="G57" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4839,7 +4746,7 @@
       <c r="G58" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4869,7 +4776,7 @@
       <c r="G59" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4899,7 +4806,7 @@
       <c r="G60" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4957,7 +4864,7 @@
       <c r="G63" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4987,7 +4894,7 @@
       <c r="G64" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5017,7 +4924,7 @@
       <c r="G65" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5047,7 +4954,7 @@
       <c r="G66" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5077,7 +4984,7 @@
       <c r="G67" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5107,7 +5014,7 @@
       <c r="G68" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5137,7 +5044,7 @@
       <c r="G69" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5167,7 +5074,7 @@
       <c r="G70" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5197,7 +5104,7 @@
       <c r="G71" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5227,7 +5134,7 @@
       <c r="G72" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H72" s="2" t="n">
+      <c r="H72" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5285,7 +5192,7 @@
       <c r="G75" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5315,7 +5222,7 @@
       <c r="G76" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5345,7 +5252,7 @@
       <c r="G77" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H77" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5375,7 +5282,7 @@
       <c r="G78" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5405,7 +5312,7 @@
       <c r="G79" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5435,7 +5342,7 @@
       <c r="G80" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5465,7 +5372,7 @@
       <c r="G81" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H81" s="2" t="n">
+      <c r="H81" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5495,7 +5402,7 @@
       <c r="G82" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5525,7 +5432,7 @@
       <c r="G83" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="H83" s="2" t="n">
+      <c r="H83" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5555,7 +5462,7 @@
       <c r="G84" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H84" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5750,7 +5657,7 @@
       <c r="G97" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H97" s="2" t="n">
+      <c r="H97" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5777,7 +5684,7 @@
       <c r="G98" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H98" s="2" t="n">
+      <c r="H98" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5975,7 +5882,7 @@
       <c r="G111" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H111" s="2" t="n">
+      <c r="H111" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6005,7 +5912,7 @@
       <c r="G112" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H112" s="2" t="n">
+      <c r="H112" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6035,7 +5942,7 @@
       <c r="G113" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H113" s="2" t="n">
+      <c r="H113" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6065,7 +5972,7 @@
       <c r="G114" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H114" s="2" t="n">
+      <c r="H114" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6095,7 +6002,7 @@
       <c r="G115" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H115" s="2" t="n">
+      <c r="H115" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6125,7 +6032,7 @@
       <c r="G116" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H116" s="2" t="n">
+      <c r="H116" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6155,7 +6062,7 @@
       <c r="G117" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H117" s="2" t="n">
+      <c r="H117" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6185,7 +6092,7 @@
       <c r="G118" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H118" s="2" t="n">
+      <c r="H118" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6215,7 +6122,7 @@
       <c r="G119" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H119" s="2" t="n">
+      <c r="H119" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6245,7 +6152,7 @@
       <c r="G120" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H120" s="2" t="n">
+      <c r="H120" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6303,7 +6210,7 @@
       <c r="G123" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H123" s="2" t="n">
+      <c r="H123" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6333,7 +6240,7 @@
       <c r="G124" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H124" s="2" t="n">
+      <c r="H124" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6363,7 +6270,7 @@
       <c r="G125" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H125" s="2" t="n">
+      <c r="H125" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6393,7 +6300,7 @@
       <c r="G126" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H126" s="2" t="n">
+      <c r="H126" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6423,7 +6330,7 @@
       <c r="G127" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H127" s="2" t="n">
+      <c r="H127" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6453,7 +6360,7 @@
       <c r="G128" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H128" s="2" t="n">
+      <c r="H128" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6483,7 +6390,7 @@
       <c r="G129" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="H129" s="2" t="n">
+      <c r="H129" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6513,7 +6420,7 @@
       <c r="G130" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H130" s="2" t="n">
+      <c r="H130" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6543,7 +6450,7 @@
       <c r="G131" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H131" s="2" t="n">
+      <c r="H131" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6573,7 +6480,7 @@
       <c r="G132" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H132" s="2" t="n">
+      <c r="H132" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6631,7 +6538,7 @@
       <c r="G135" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H135" s="2" t="n">
+      <c r="H135" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6661,7 +6568,7 @@
       <c r="G136" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="H136" s="2" t="n">
+      <c r="H136" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6691,7 +6598,7 @@
       <c r="G137" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="H137" s="2" t="n">
+      <c r="H137" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6721,7 +6628,7 @@
       <c r="G138" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H138" s="2" t="n">
+      <c r="H138" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6751,7 +6658,7 @@
       <c r="G139" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="H139" s="2" t="n">
+      <c r="H139" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6781,7 +6688,7 @@
       <c r="G140" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H140" s="2" t="n">
+      <c r="H140" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6811,7 +6718,7 @@
       <c r="G141" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H141" s="2" t="n">
+      <c r="H141" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6841,7 +6748,7 @@
       <c r="G142" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H142" s="2" t="n">
+      <c r="H142" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6871,7 +6778,7 @@
       <c r="G143" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H143" s="2" t="n">
+      <c r="H143" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6901,7 +6808,7 @@
       <c r="G144" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H144" s="2" t="n">
+      <c r="H144" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6959,7 +6866,7 @@
       <c r="G147" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H147" s="2" t="n">
+      <c r="H147" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6989,7 +6896,7 @@
       <c r="G148" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H148" s="2" t="n">
+      <c r="H148" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7019,7 +6926,7 @@
       <c r="G149" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="H149" s="2" t="n">
+      <c r="H149" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7049,7 +6956,7 @@
       <c r="G150" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H150" s="2" t="n">
+      <c r="H150" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7079,7 +6986,7 @@
       <c r="G151" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="H151" s="2" t="n">
+      <c r="H151" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7109,7 +7016,7 @@
       <c r="G152" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="H152" s="2" t="n">
+      <c r="H152" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7139,7 +7046,7 @@
       <c r="G153" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H153" s="2" t="n">
+      <c r="H153" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7169,7 +7076,7 @@
       <c r="G154" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="H154" s="2" t="n">
+      <c r="H154" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7199,7 +7106,7 @@
       <c r="G155" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H155" s="2" t="n">
+      <c r="H155" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7229,7 +7136,7 @@
       <c r="G156" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="H156" s="2" t="n">
+      <c r="H156" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7287,7 +7194,7 @@
       <c r="G159" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="H159" s="2" t="n">
+      <c r="H159" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7317,7 +7224,7 @@
       <c r="G160" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="H160" s="2" t="n">
+      <c r="H160" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7347,7 +7254,7 @@
       <c r="G161" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="H161" s="2" t="n">
+      <c r="H161" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7377,7 +7284,7 @@
       <c r="G162" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="H162" s="2" t="n">
+      <c r="H162" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7407,7 +7314,7 @@
       <c r="G163" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="H163" s="2" t="n">
+      <c r="H163" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7437,7 +7344,7 @@
       <c r="G164" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="H164" s="2" t="n">
+      <c r="H164" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7467,7 +7374,7 @@
       <c r="G165" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="H165" s="2" t="n">
+      <c r="H165" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7497,7 +7404,7 @@
       <c r="G166" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="H166" s="2" t="n">
+      <c r="H166" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7527,7 +7434,7 @@
       <c r="G167" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="H167" s="2" t="n">
+      <c r="H167" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7557,7 +7464,7 @@
       <c r="G168" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H168" s="2" t="n">
+      <c r="H168" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7615,7 +7522,7 @@
       <c r="G171" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H171" s="2" t="n">
+      <c r="H171" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7645,7 +7552,7 @@
       <c r="G172" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="H172" s="2" t="n">
+      <c r="H172" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7675,7 +7582,7 @@
       <c r="G173" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="H173" s="2" t="n">
+      <c r="H173" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7705,7 +7612,7 @@
       <c r="G174" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="H174" s="2" t="n">
+      <c r="H174" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7735,7 +7642,7 @@
       <c r="G175" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="H175" s="2" t="n">
+      <c r="H175" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7765,7 +7672,7 @@
       <c r="G176" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="H176" s="2" t="n">
+      <c r="H176" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7795,7 +7702,7 @@
       <c r="G177" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H177" s="2" t="n">
+      <c r="H177" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7825,7 +7732,7 @@
       <c r="G178" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="H178" s="2" t="n">
+      <c r="H178" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7855,7 +7762,7 @@
       <c r="G179" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="H179" s="2" t="n">
+      <c r="H179" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7885,7 +7792,7 @@
       <c r="G180" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="H180" s="2" t="n">
+      <c r="H180" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8080,7 +7987,7 @@
       <c r="G193" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H193" s="2" t="n">
+      <c r="H193" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8107,7 +8014,7 @@
       <c r="G194" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H194" s="2" t="n">
+      <c r="H194" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8305,7 +8212,7 @@
       <c r="G207" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H207" s="2" t="n">
+      <c r="H207" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8335,7 +8242,7 @@
       <c r="G208" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H208" s="2" t="n">
+      <c r="H208" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8365,7 +8272,7 @@
       <c r="G209" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H209" s="2" t="n">
+      <c r="H209" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8395,7 +8302,7 @@
       <c r="G210" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H210" s="2" t="n">
+      <c r="H210" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8425,7 +8332,7 @@
       <c r="G211" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H211" s="2" t="n">
+      <c r="H211" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8455,7 +8362,7 @@
       <c r="G212" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H212" s="2" t="n">
+      <c r="H212" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8485,7 +8392,7 @@
       <c r="G213" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H213" s="2" t="n">
+      <c r="H213" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8515,7 +8422,7 @@
       <c r="G214" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H214" s="2" t="n">
+      <c r="H214" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8545,7 +8452,7 @@
       <c r="G215" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H215" s="2" t="n">
+      <c r="H215" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8575,7 +8482,7 @@
       <c r="G216" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H216" s="2" t="n">
+      <c r="H216" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8633,7 +8540,7 @@
       <c r="G219" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H219" s="2" t="n">
+      <c r="H219" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8663,7 +8570,7 @@
       <c r="G220" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H220" s="2" t="n">
+      <c r="H220" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8693,7 +8600,7 @@
       <c r="G221" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H221" s="2" t="n">
+      <c r="H221" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8723,7 +8630,7 @@
       <c r="G222" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H222" s="2" t="n">
+      <c r="H222" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8753,7 +8660,7 @@
       <c r="G223" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H223" s="2" t="n">
+      <c r="H223" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8783,7 +8690,7 @@
       <c r="G224" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H224" s="2" t="n">
+      <c r="H224" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8813,7 +8720,7 @@
       <c r="G225" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="H225" s="2" t="n">
+      <c r="H225" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8843,7 +8750,7 @@
       <c r="G226" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H226" s="2" t="n">
+      <c r="H226" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8873,7 +8780,7 @@
       <c r="G227" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H227" s="2" t="n">
+      <c r="H227" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8903,7 +8810,7 @@
       <c r="G228" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H228" s="2" t="n">
+      <c r="H228" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8961,7 +8868,7 @@
       <c r="G231" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H231" s="2" t="n">
+      <c r="H231" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8991,7 +8898,7 @@
       <c r="G232" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="H232" s="2" t="n">
+      <c r="H232" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9021,7 +8928,7 @@
       <c r="G233" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="H233" s="2" t="n">
+      <c r="H233" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9051,7 +8958,7 @@
       <c r="G234" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H234" s="2" t="n">
+      <c r="H234" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9081,7 +8988,7 @@
       <c r="G235" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="H235" s="2" t="n">
+      <c r="H235" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9111,7 +9018,7 @@
       <c r="G236" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H236" s="2" t="n">
+      <c r="H236" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9141,7 +9048,7 @@
       <c r="G237" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H237" s="2" t="n">
+      <c r="H237" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9171,7 +9078,7 @@
       <c r="G238" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H238" s="2" t="n">
+      <c r="H238" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9201,7 +9108,7 @@
       <c r="G239" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H239" s="2" t="n">
+      <c r="H239" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9231,7 +9138,7 @@
       <c r="G240" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H240" s="2" t="n">
+      <c r="H240" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9289,7 +9196,7 @@
       <c r="G243" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H243" s="2" t="n">
+      <c r="H243" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9319,7 +9226,7 @@
       <c r="G244" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H244" s="2" t="n">
+      <c r="H244" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9349,7 +9256,7 @@
       <c r="G245" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="H245" s="2" t="n">
+      <c r="H245" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9379,7 +9286,7 @@
       <c r="G246" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H246" s="2" t="n">
+      <c r="H246" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9409,7 +9316,7 @@
       <c r="G247" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="H247" s="2" t="n">
+      <c r="H247" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9439,7 +9346,7 @@
       <c r="G248" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="H248" s="2" t="n">
+      <c r="H248" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9469,7 +9376,7 @@
       <c r="G249" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H249" s="2" t="n">
+      <c r="H249" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9499,7 +9406,7 @@
       <c r="G250" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="H250" s="2" t="n">
+      <c r="H250" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9529,7 +9436,7 @@
       <c r="G251" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H251" s="2" t="n">
+      <c r="H251" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9559,7 +9466,7 @@
       <c r="G252" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="H252" s="2" t="n">
+      <c r="H252" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9617,7 +9524,7 @@
       <c r="G255" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="H255" s="2" t="n">
+      <c r="H255" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9647,7 +9554,7 @@
       <c r="G256" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="H256" s="2" t="n">
+      <c r="H256" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9677,7 +9584,7 @@
       <c r="G257" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="H257" s="2" t="n">
+      <c r="H257" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9707,7 +9614,7 @@
       <c r="G258" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="H258" s="2" t="n">
+      <c r="H258" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9737,7 +9644,7 @@
       <c r="G259" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="H259" s="2" t="n">
+      <c r="H259" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9767,7 +9674,7 @@
       <c r="G260" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="H260" s="2" t="n">
+      <c r="H260" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9797,7 +9704,7 @@
       <c r="G261" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="H261" s="2" t="n">
+      <c r="H261" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9827,7 +9734,7 @@
       <c r="G262" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="H262" s="2" t="n">
+      <c r="H262" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9857,7 +9764,7 @@
       <c r="G263" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="H263" s="2" t="n">
+      <c r="H263" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9887,7 +9794,7 @@
       <c r="G264" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H264" s="2" t="n">
+      <c r="H264" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9945,7 +9852,7 @@
       <c r="G267" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H267" s="2" t="n">
+      <c r="H267" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9975,7 +9882,7 @@
       <c r="G268" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="H268" s="2" t="n">
+      <c r="H268" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10005,7 +9912,7 @@
       <c r="G269" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="H269" s="2" t="n">
+      <c r="H269" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10035,7 +9942,7 @@
       <c r="G270" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="H270" s="2" t="n">
+      <c r="H270" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10065,7 +9972,7 @@
       <c r="G271" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="H271" s="2" t="n">
+      <c r="H271" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10095,7 +10002,7 @@
       <c r="G272" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="H272" s="2" t="n">
+      <c r="H272" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10125,7 +10032,7 @@
       <c r="G273" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H273" s="2" t="n">
+      <c r="H273" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10155,7 +10062,7 @@
       <c r="G274" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="H274" s="2" t="n">
+      <c r="H274" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10185,7 +10092,7 @@
       <c r="G275" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="H275" s="2" t="n">
+      <c r="H275" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10215,7 +10122,7 @@
       <c r="G276" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="H276" s="2" t="n">
+      <c r="H276" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10410,7 +10317,7 @@
       <c r="G289" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H289" s="2" t="n">
+      <c r="H289" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10437,7 +10344,7 @@
       <c r="G290" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H290" s="2" t="n">
+      <c r="H290" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10635,7 +10542,7 @@
       <c r="G303" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H303" s="2" t="n">
+      <c r="H303" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10665,7 +10572,7 @@
       <c r="G304" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H304" s="2" t="n">
+      <c r="H304" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10695,7 +10602,7 @@
       <c r="G305" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H305" s="2" t="n">
+      <c r="H305" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10725,7 +10632,7 @@
       <c r="G306" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H306" s="2" t="n">
+      <c r="H306" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10755,7 +10662,7 @@
       <c r="G307" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H307" s="2" t="n">
+      <c r="H307" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10785,7 +10692,7 @@
       <c r="G308" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H308" s="2" t="n">
+      <c r="H308" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10815,7 +10722,7 @@
       <c r="G309" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H309" s="2" t="n">
+      <c r="H309" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10845,7 +10752,7 @@
       <c r="G310" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H310" s="2" t="n">
+      <c r="H310" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10875,7 +10782,7 @@
       <c r="G311" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H311" s="2" t="n">
+      <c r="H311" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10905,7 +10812,7 @@
       <c r="G312" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H312" s="2" t="n">
+      <c r="H312" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10963,7 +10870,7 @@
       <c r="G315" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H315" s="2" t="n">
+      <c r="H315" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10993,7 +10900,7 @@
       <c r="G316" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H316" s="2" t="n">
+      <c r="H316" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11023,7 +10930,7 @@
       <c r="G317" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H317" s="2" t="n">
+      <c r="H317" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11053,7 +10960,7 @@
       <c r="G318" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H318" s="2" t="n">
+      <c r="H318" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11083,7 +10990,7 @@
       <c r="G319" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H319" s="2" t="n">
+      <c r="H319" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11113,7 +11020,7 @@
       <c r="G320" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H320" s="2" t="n">
+      <c r="H320" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11143,7 +11050,7 @@
       <c r="G321" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="H321" s="2" t="n">
+      <c r="H321" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11173,7 +11080,7 @@
       <c r="G322" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H322" s="2" t="n">
+      <c r="H322" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11203,7 +11110,7 @@
       <c r="G323" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H323" s="2" t="n">
+      <c r="H323" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11233,7 +11140,7 @@
       <c r="G324" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H324" s="2" t="n">
+      <c r="H324" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11291,7 +11198,7 @@
       <c r="G327" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H327" s="2" t="n">
+      <c r="H327" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11321,7 +11228,7 @@
       <c r="G328" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="H328" s="2" t="n">
+      <c r="H328" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11351,7 +11258,7 @@
       <c r="G329" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="H329" s="2" t="n">
+      <c r="H329" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11381,7 +11288,7 @@
       <c r="G330" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H330" s="2" t="n">
+      <c r="H330" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11411,7 +11318,7 @@
       <c r="G331" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="H331" s="2" t="n">
+      <c r="H331" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11441,7 +11348,7 @@
       <c r="G332" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H332" s="2" t="n">
+      <c r="H332" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11471,7 +11378,7 @@
       <c r="G333" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H333" s="2" t="n">
+      <c r="H333" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11501,7 +11408,7 @@
       <c r="G334" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H334" s="2" t="n">
+      <c r="H334" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11531,7 +11438,7 @@
       <c r="G335" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H335" s="2" t="n">
+      <c r="H335" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11561,7 +11468,7 @@
       <c r="G336" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H336" s="2" t="n">
+      <c r="H336" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11619,7 +11526,7 @@
       <c r="G339" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H339" s="2" t="n">
+      <c r="H339" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11649,7 +11556,7 @@
       <c r="G340" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H340" s="2" t="n">
+      <c r="H340" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11679,7 +11586,7 @@
       <c r="G341" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="H341" s="2" t="n">
+      <c r="H341" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11709,7 +11616,7 @@
       <c r="G342" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H342" s="2" t="n">
+      <c r="H342" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11739,7 +11646,7 @@
       <c r="G343" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="H343" s="2" t="n">
+      <c r="H343" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11769,7 +11676,7 @@
       <c r="G344" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="H344" s="2" t="n">
+      <c r="H344" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11799,7 +11706,7 @@
       <c r="G345" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H345" s="2" t="n">
+      <c r="H345" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11829,7 +11736,7 @@
       <c r="G346" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="H346" s="2" t="n">
+      <c r="H346" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11859,7 +11766,7 @@
       <c r="G347" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H347" s="2" t="n">
+      <c r="H347" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11889,7 +11796,7 @@
       <c r="G348" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="H348" s="2" t="n">
+      <c r="H348" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11947,7 +11854,7 @@
       <c r="G351" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="H351" s="2" t="n">
+      <c r="H351" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -11977,7 +11884,7 @@
       <c r="G352" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="H352" s="2" t="n">
+      <c r="H352" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12007,7 +11914,7 @@
       <c r="G353" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="H353" s="2" t="n">
+      <c r="H353" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12037,7 +11944,7 @@
       <c r="G354" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="H354" s="2" t="n">
+      <c r="H354" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12067,7 +11974,7 @@
       <c r="G355" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="H355" s="2" t="n">
+      <c r="H355" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12097,7 +12004,7 @@
       <c r="G356" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="H356" s="2" t="n">
+      <c r="H356" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12127,7 +12034,7 @@
       <c r="G357" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="H357" s="2" t="n">
+      <c r="H357" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12157,7 +12064,7 @@
       <c r="G358" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="H358" s="2" t="n">
+      <c r="H358" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12187,7 +12094,7 @@
       <c r="G359" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="H359" s="2" t="n">
+      <c r="H359" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12217,7 +12124,7 @@
       <c r="G360" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H360" s="2" t="n">
+      <c r="H360" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12275,7 +12182,7 @@
       <c r="G363" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H363" s="2" t="n">
+      <c r="H363" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12305,7 +12212,7 @@
       <c r="G364" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="H364" s="2" t="n">
+      <c r="H364" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12335,7 +12242,7 @@
       <c r="G365" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="H365" s="2" t="n">
+      <c r="H365" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12365,7 +12272,7 @@
       <c r="G366" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="H366" s="2" t="n">
+      <c r="H366" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12395,7 +12302,7 @@
       <c r="G367" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="H367" s="2" t="n">
+      <c r="H367" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12425,7 +12332,7 @@
       <c r="G368" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="H368" s="2" t="n">
+      <c r="H368" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12455,7 +12362,7 @@
       <c r="G369" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H369" s="2" t="n">
+      <c r="H369" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12485,7 +12392,7 @@
       <c r="G370" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="H370" s="2" t="n">
+      <c r="H370" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12515,7 +12422,7 @@
       <c r="G371" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="H371" s="2" t="n">
+      <c r="H371" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12545,7 +12452,7 @@
       <c r="G372" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="H372" s="2" t="n">
+      <c r="H372" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12740,7 +12647,7 @@
       <c r="G385" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H385" s="2" t="n">
+      <c r="H385" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12767,7 +12674,7 @@
       <c r="G386" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H386" s="2" t="n">
+      <c r="H386" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12965,7 +12872,7 @@
       <c r="G399" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H399" s="2" t="n">
+      <c r="H399" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12995,7 +12902,7 @@
       <c r="G400" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H400" s="2" t="n">
+      <c r="H400" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13025,7 +12932,7 @@
       <c r="G401" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H401" s="2" t="n">
+      <c r="H401" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13055,7 +12962,7 @@
       <c r="G402" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H402" s="2" t="n">
+      <c r="H402" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13085,7 +12992,7 @@
       <c r="G403" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H403" s="2" t="n">
+      <c r="H403" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13115,7 +13022,7 @@
       <c r="G404" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H404" s="2" t="n">
+      <c r="H404" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13145,7 +13052,7 @@
       <c r="G405" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H405" s="2" t="n">
+      <c r="H405" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13175,7 +13082,7 @@
       <c r="G406" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H406" s="2" t="n">
+      <c r="H406" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13205,7 +13112,7 @@
       <c r="G407" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H407" s="2" t="n">
+      <c r="H407" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13235,7 +13142,7 @@
       <c r="G408" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H408" s="2" t="n">
+      <c r="H408" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13293,7 +13200,7 @@
       <c r="G411" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H411" s="2" t="n">
+      <c r="H411" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13323,7 +13230,7 @@
       <c r="G412" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H412" s="2" t="n">
+      <c r="H412" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13353,7 +13260,7 @@
       <c r="G413" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H413" s="2" t="n">
+      <c r="H413" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13383,7 +13290,7 @@
       <c r="G414" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H414" s="2" t="n">
+      <c r="H414" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13413,7 +13320,7 @@
       <c r="G415" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H415" s="2" t="n">
+      <c r="H415" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13443,7 +13350,7 @@
       <c r="G416" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H416" s="2" t="n">
+      <c r="H416" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13473,7 +13380,7 @@
       <c r="G417" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="H417" s="2" t="n">
+      <c r="H417" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13503,7 +13410,7 @@
       <c r="G418" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H418" s="2" t="n">
+      <c r="H418" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13533,7 +13440,7 @@
       <c r="G419" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H419" s="2" t="n">
+      <c r="H419" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13563,7 +13470,7 @@
       <c r="G420" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H420" s="2" t="n">
+      <c r="H420" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13621,7 +13528,7 @@
       <c r="G423" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H423" s="2" t="n">
+      <c r="H423" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13651,7 +13558,7 @@
       <c r="G424" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="H424" s="2" t="n">
+      <c r="H424" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13681,7 +13588,7 @@
       <c r="G425" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="H425" s="2" t="n">
+      <c r="H425" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13711,7 +13618,7 @@
       <c r="G426" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H426" s="2" t="n">
+      <c r="H426" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13741,7 +13648,7 @@
       <c r="G427" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="H427" s="2" t="n">
+      <c r="H427" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13771,7 +13678,7 @@
       <c r="G428" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H428" s="2" t="n">
+      <c r="H428" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13801,7 +13708,7 @@
       <c r="G429" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H429" s="2" t="n">
+      <c r="H429" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13831,7 +13738,7 @@
       <c r="G430" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H430" s="2" t="n">
+      <c r="H430" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13861,7 +13768,7 @@
       <c r="G431" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H431" s="2" t="n">
+      <c r="H431" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13891,7 +13798,7 @@
       <c r="G432" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H432" s="2" t="n">
+      <c r="H432" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13949,7 +13856,7 @@
       <c r="G435" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H435" s="2" t="n">
+      <c r="H435" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -13979,7 +13886,7 @@
       <c r="G436" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H436" s="2" t="n">
+      <c r="H436" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14009,7 +13916,7 @@
       <c r="G437" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="H437" s="2" t="n">
+      <c r="H437" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14039,7 +13946,7 @@
       <c r="G438" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H438" s="2" t="n">
+      <c r="H438" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14069,7 +13976,7 @@
       <c r="G439" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="H439" s="2" t="n">
+      <c r="H439" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14099,7 +14006,7 @@
       <c r="G440" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="H440" s="2" t="n">
+      <c r="H440" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14129,7 +14036,7 @@
       <c r="G441" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H441" s="2" t="n">
+      <c r="H441" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14159,7 +14066,7 @@
       <c r="G442" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="H442" s="2" t="n">
+      <c r="H442" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14189,7 +14096,7 @@
       <c r="G443" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H443" s="2" t="n">
+      <c r="H443" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14219,7 +14126,7 @@
       <c r="G444" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="H444" s="2" t="n">
+      <c r="H444" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14277,7 +14184,7 @@
       <c r="G447" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="H447" s="2" t="n">
+      <c r="H447" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14307,7 +14214,7 @@
       <c r="G448" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="H448" s="2" t="n">
+      <c r="H448" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14337,7 +14244,7 @@
       <c r="G449" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="H449" s="2" t="n">
+      <c r="H449" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14367,7 +14274,7 @@
       <c r="G450" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="H450" s="2" t="n">
+      <c r="H450" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14397,7 +14304,7 @@
       <c r="G451" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="H451" s="2" t="n">
+      <c r="H451" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14427,7 +14334,7 @@
       <c r="G452" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="H452" s="2" t="n">
+      <c r="H452" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14457,7 +14364,7 @@
       <c r="G453" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="H453" s="2" t="n">
+      <c r="H453" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14487,7 +14394,7 @@
       <c r="G454" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="H454" s="2" t="n">
+      <c r="H454" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14517,7 +14424,7 @@
       <c r="G455" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="H455" s="2" t="n">
+      <c r="H455" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14547,7 +14454,7 @@
       <c r="G456" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H456" s="2" t="n">
+      <c r="H456" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14605,7 +14512,7 @@
       <c r="G459" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H459" s="2" t="n">
+      <c r="H459" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14635,7 +14542,7 @@
       <c r="G460" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="H460" s="2" t="n">
+      <c r="H460" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14665,7 +14572,7 @@
       <c r="G461" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="H461" s="2" t="n">
+      <c r="H461" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14695,7 +14602,7 @@
       <c r="G462" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="H462" s="2" t="n">
+      <c r="H462" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14725,7 +14632,7 @@
       <c r="G463" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="H463" s="2" t="n">
+      <c r="H463" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14755,7 +14662,7 @@
       <c r="G464" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="H464" s="2" t="n">
+      <c r="H464" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14785,7 +14692,7 @@
       <c r="G465" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H465" s="2" t="n">
+      <c r="H465" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14815,7 +14722,7 @@
       <c r="G466" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="H466" s="2" t="n">
+      <c r="H466" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14845,7 +14752,7 @@
       <c r="G467" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="H467" s="2" t="n">
+      <c r="H467" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14863,7 +14770,7 @@
       <c r="C468" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="H468" s="2" t="n">
+      <c r="H468" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15058,7 +14965,7 @@
       <c r="G481" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H481" s="2" t="n">
+      <c r="H481" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15085,7 +14992,7 @@
       <c r="G482" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H482" s="2" t="n">
+      <c r="H482" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15280,7 +15187,7 @@
       <c r="G495" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H495" s="2" t="n">
+      <c r="H495" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15307,7 +15214,7 @@
       <c r="G496" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H496" s="2" t="n">
+      <c r="H496" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15334,7 +15241,7 @@
       <c r="G497" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H497" s="2" t="n">
+      <c r="H497" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15361,7 +15268,7 @@
       <c r="G498" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H498" s="2" t="n">
+      <c r="H498" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15385,7 +15292,7 @@
       <c r="G499" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H499" s="2" t="n">
+      <c r="H499" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15409,7 +15316,7 @@
       <c r="G500" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H500" s="2" t="n">
+      <c r="H500" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15433,7 +15340,7 @@
       <c r="G501" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H501" s="2" t="n">
+      <c r="H501" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15457,7 +15364,7 @@
       <c r="G502" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H502" s="2" t="n">
+      <c r="H502" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15481,7 +15388,7 @@
       <c r="G503" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H503" s="2" t="n">
+      <c r="H503" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15505,7 +15412,7 @@
       <c r="G504" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H504" s="2" t="n">
+      <c r="H504" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15554,7 +15461,7 @@
       <c r="G507" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H507" s="2" t="n">
+      <c r="H507" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15581,7 +15488,7 @@
       <c r="G508" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H508" s="2" t="n">
+      <c r="H508" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15608,7 +15515,7 @@
       <c r="G509" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H509" s="2" t="n">
+      <c r="H509" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15635,7 +15542,7 @@
       <c r="G510" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H510" s="2" t="n">
+      <c r="H510" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15659,7 +15566,7 @@
       <c r="G511" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H511" s="2" t="n">
+      <c r="H511" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15683,7 +15590,7 @@
       <c r="G512" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H512" s="2" t="n">
+      <c r="H512" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15707,7 +15614,7 @@
       <c r="G513" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H513" s="2" t="n">
+      <c r="H513" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15731,7 +15638,7 @@
       <c r="G514" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H514" s="2" t="n">
+      <c r="H514" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15755,7 +15662,7 @@
       <c r="G515" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H515" s="2" t="n">
+      <c r="H515" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15779,7 +15686,7 @@
       <c r="G516" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H516" s="2" t="n">
+      <c r="H516" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15828,7 +15735,7 @@
       <c r="G519" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H519" s="2" t="n">
+      <c r="H519" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15855,7 +15762,7 @@
       <c r="G520" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H520" s="2" t="n">
+      <c r="H520" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15882,7 +15789,7 @@
       <c r="G521" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H521" s="2" t="n">
+      <c r="H521" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15909,7 +15816,7 @@
       <c r="G522" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H522" s="2" t="n">
+      <c r="H522" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15933,7 +15840,7 @@
       <c r="G523" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H523" s="2" t="n">
+      <c r="H523" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15957,7 +15864,7 @@
       <c r="G524" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H524" s="2" t="n">
+      <c r="H524" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15981,7 +15888,7 @@
       <c r="G525" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H525" s="2" t="n">
+      <c r="H525" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16005,7 +15912,7 @@
       <c r="G526" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H526" s="2" t="n">
+      <c r="H526" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16029,7 +15936,7 @@
       <c r="G527" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H527" s="2" t="n">
+      <c r="H527" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16053,7 +15960,7 @@
       <c r="G528" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H528" s="2" t="n">
+      <c r="H528" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16102,7 +16009,7 @@
       <c r="G531" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H531" s="2" t="n">
+      <c r="H531" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16129,7 +16036,7 @@
       <c r="G532" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H532" s="2" t="n">
+      <c r="H532" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16156,7 +16063,7 @@
       <c r="G533" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H533" s="2" t="n">
+      <c r="H533" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16183,7 +16090,7 @@
       <c r="G534" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H534" s="2" t="n">
+      <c r="H534" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16207,7 +16114,7 @@
       <c r="G535" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H535" s="2" t="n">
+      <c r="H535" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16231,7 +16138,7 @@
       <c r="G536" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H536" s="2" t="n">
+      <c r="H536" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16255,7 +16162,7 @@
       <c r="G537" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H537" s="2" t="n">
+      <c r="H537" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16279,7 +16186,7 @@
       <c r="G538" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H538" s="2" t="n">
+      <c r="H538" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16303,7 +16210,7 @@
       <c r="G539" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H539" s="2" t="n">
+      <c r="H539" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16327,7 +16234,7 @@
       <c r="G540" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H540" s="2" t="n">
+      <c r="H540" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16376,7 +16283,7 @@
       <c r="G543" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H543" s="2" t="n">
+      <c r="H543" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16403,7 +16310,7 @@
       <c r="G544" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H544" s="2" t="n">
+      <c r="H544" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16430,7 +16337,7 @@
       <c r="G545" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H545" s="2" t="n">
+      <c r="H545" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16457,7 +16364,7 @@
       <c r="G546" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H546" s="2" t="n">
+      <c r="H546" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16481,7 +16388,7 @@
       <c r="G547" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H547" s="2" t="n">
+      <c r="H547" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16505,7 +16412,7 @@
       <c r="G548" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H548" s="2" t="n">
+      <c r="H548" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16529,7 +16436,7 @@
       <c r="G549" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H549" s="2" t="n">
+      <c r="H549" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16553,7 +16460,7 @@
       <c r="G550" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H550" s="2" t="n">
+      <c r="H550" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16577,7 +16484,7 @@
       <c r="G551" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H551" s="2" t="n">
+      <c r="H551" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16601,7 +16508,7 @@
       <c r="G552" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H552" s="2" t="n">
+      <c r="H552" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16650,7 +16557,7 @@
       <c r="G555" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H555" s="2" t="n">
+      <c r="H555" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16677,7 +16584,7 @@
       <c r="G556" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H556" s="2" t="n">
+      <c r="H556" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16704,7 +16611,7 @@
       <c r="G557" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H557" s="2" t="n">
+      <c r="H557" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16731,7 +16638,7 @@
       <c r="G558" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H558" s="2" t="n">
+      <c r="H558" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16755,7 +16662,7 @@
       <c r="G559" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H559" s="2" t="n">
+      <c r="H559" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16779,7 +16686,7 @@
       <c r="G560" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H560" s="2" t="n">
+      <c r="H560" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16803,7 +16710,7 @@
       <c r="G561" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H561" s="2" t="n">
+      <c r="H561" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16827,7 +16734,7 @@
       <c r="G562" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H562" s="2" t="n">
+      <c r="H562" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16851,7 +16758,7 @@
       <c r="G563" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H563" s="2" t="n">
+      <c r="H563" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16875,7 +16782,7 @@
       <c r="G564" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H564" s="2" t="n">
+      <c r="H564" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17034,7 +16941,7 @@
       <c r="G577" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H577" s="2" t="n">
+      <c r="H577" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17045,7 +16952,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -17058,18 +16965,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17077,160 +16985,271 @@
         <v>229</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>231</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="B3" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>223</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>224</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>225</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>226</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>238</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="B9" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>223</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>224</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>225</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>226</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>245</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="B15" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>248</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="B17" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="B19" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -17245,23 +17264,23 @@
   </sheetPr>
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>114</v>
@@ -17301,6 +17320,9 @@
       <c r="E2" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>263</v>
       </c>
@@ -17324,6 +17346,9 @@
       <c r="E3" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>265</v>
       </c>
@@ -17347,6 +17372,9 @@
       <c r="E4" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G4" s="0" t="s">
         <v>267</v>
       </c>
@@ -17370,6 +17398,9 @@
       <c r="E5" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G5" s="0" t="s">
         <v>269</v>
       </c>
@@ -17393,6 +17424,9 @@
       <c r="E6" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G6" s="0" t="s">
         <v>271</v>
       </c>
@@ -17416,6 +17450,9 @@
       <c r="E7" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G7" s="0" t="s">
         <v>273</v>
       </c>
@@ -17439,6 +17476,9 @@
       <c r="E8" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G8" s="0" t="s">
         <v>275</v>
       </c>
@@ -17462,6 +17502,9 @@
       <c r="E9" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G9" s="0" t="s">
         <v>277</v>
       </c>
@@ -17485,6 +17528,9 @@
       <c r="E10" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G10" s="0" t="s">
         <v>279</v>
       </c>
@@ -17508,6 +17554,9 @@
       <c r="E11" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F11" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G11" s="0" t="s">
         <v>281</v>
       </c>
@@ -17531,6 +17580,9 @@
       <c r="E12" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G12" s="0" t="s">
         <v>283</v>
       </c>
@@ -17554,6 +17606,9 @@
       <c r="E13" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G13" s="0" t="s">
         <v>285</v>
       </c>
@@ -17577,6 +17632,9 @@
       <c r="E14" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G14" s="0" t="s">
         <v>287</v>
       </c>
@@ -17600,6 +17658,9 @@
       <c r="E15" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G15" s="0" t="s">
         <v>289</v>
       </c>
@@ -17623,6 +17684,9 @@
       <c r="E16" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G16" s="0" t="s">
         <v>291</v>
       </c>
@@ -17646,6 +17710,9 @@
       <c r="E17" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G17" s="0" t="s">
         <v>293</v>
       </c>
@@ -17669,6 +17736,9 @@
       <c r="E18" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G18" s="0" t="s">
         <v>295</v>
       </c>
@@ -17692,6 +17762,9 @@
       <c r="E19" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G19" s="0" t="s">
         <v>297</v>
       </c>
@@ -17715,6 +17788,9 @@
       <c r="E20" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G20" s="0" t="s">
         <v>299</v>
       </c>
@@ -17738,6 +17814,9 @@
       <c r="E21" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G21" s="0" t="s">
         <v>301</v>
       </c>
@@ -17761,6 +17840,9 @@
       <c r="E22" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G22" s="0" t="s">
         <v>303</v>
       </c>
@@ -17784,6 +17866,9 @@
       <c r="E23" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G23" s="0" t="s">
         <v>305</v>
       </c>
@@ -17807,6 +17892,9 @@
       <c r="E24" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G24" s="0" t="s">
         <v>307</v>
       </c>
@@ -17830,6 +17918,9 @@
       <c r="E25" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G25" s="0" t="s">
         <v>309</v>
       </c>
@@ -17853,6 +17944,9 @@
       <c r="E26" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G26" s="0" t="s">
         <v>311</v>
       </c>
@@ -17876,6 +17970,9 @@
       <c r="E27" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G27" s="0" t="s">
         <v>313</v>
       </c>
@@ -17899,6 +17996,9 @@
       <c r="E28" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F28" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G28" s="0" t="s">
         <v>315</v>
       </c>
@@ -17922,6 +18022,9 @@
       <c r="E29" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F29" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G29" s="0" t="s">
         <v>317</v>
       </c>
@@ -17945,6 +18048,9 @@
       <c r="E30" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F30" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G30" s="0" t="s">
         <v>319</v>
       </c>
@@ -17968,6 +18074,9 @@
       <c r="E31" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F31" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G31" s="0" t="s">
         <v>321</v>
       </c>
@@ -17991,6 +18100,9 @@
       <c r="E32" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F32" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G32" s="0" t="s">
         <v>323</v>
       </c>
@@ -18014,6 +18126,9 @@
       <c r="E33" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F33" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G33" s="0" t="s">
         <v>325</v>
       </c>
@@ -18037,6 +18152,9 @@
       <c r="E34" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F34" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G34" s="0" t="s">
         <v>327</v>
       </c>
@@ -18060,6 +18178,9 @@
       <c r="E35" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F35" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G35" s="0" t="s">
         <v>329</v>
       </c>
@@ -18083,6 +18204,9 @@
       <c r="E36" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F36" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G36" s="0" t="s">
         <v>331</v>
       </c>
@@ -18106,6 +18230,9 @@
       <c r="E37" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F37" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G37" s="0" t="s">
         <v>333</v>
       </c>
@@ -18129,6 +18256,9 @@
       <c r="E38" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F38" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G38" s="0" t="s">
         <v>335</v>
       </c>
@@ -18152,6 +18282,9 @@
       <c r="E39" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F39" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G39" s="0" t="s">
         <v>337</v>
       </c>
@@ -18175,6 +18308,9 @@
       <c r="E40" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F40" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G40" s="0" t="s">
         <v>339</v>
       </c>
@@ -18198,6 +18334,9 @@
       <c r="E41" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F41" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G41" s="0" t="s">
         <v>341</v>
       </c>
@@ -18221,6 +18360,9 @@
       <c r="E42" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F42" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G42" s="0" t="s">
         <v>343</v>
       </c>
@@ -18244,6 +18386,9 @@
       <c r="E43" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F43" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G43" s="0" t="s">
         <v>345</v>
       </c>
@@ -18267,6 +18412,9 @@
       <c r="E44" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F44" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G44" s="0" t="s">
         <v>347</v>
       </c>
@@ -18290,6 +18438,9 @@
       <c r="E45" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F45" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G45" s="0" t="s">
         <v>349</v>
       </c>
@@ -18313,6 +18464,9 @@
       <c r="E46" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F46" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G46" s="0" t="s">
         <v>351</v>
       </c>
@@ -18336,6 +18490,9 @@
       <c r="E47" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F47" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G47" s="0" t="s">
         <v>353</v>
       </c>
@@ -18359,6 +18516,9 @@
       <c r="E48" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F48" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G48" s="0" t="s">
         <v>355</v>
       </c>
@@ -18382,6 +18542,9 @@
       <c r="E49" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F49" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G49" s="0" t="s">
         <v>357</v>
       </c>
@@ -18405,6 +18568,9 @@
       <c r="E50" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F50" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G50" s="0" t="s">
         <v>359</v>
       </c>
@@ -18428,6 +18594,9 @@
       <c r="E51" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F51" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G51" s="0" t="s">
         <v>361</v>
       </c>
@@ -18451,6 +18620,9 @@
       <c r="E52" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F52" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G52" s="0" t="s">
         <v>363</v>
       </c>
@@ -18474,6 +18646,9 @@
       <c r="E53" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F53" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G53" s="0" t="s">
         <v>365</v>
       </c>
@@ -18497,6 +18672,9 @@
       <c r="E54" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F54" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G54" s="0" t="s">
         <v>367</v>
       </c>
@@ -18520,6 +18698,9 @@
       <c r="E55" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F55" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G55" s="0" t="s">
         <v>369</v>
       </c>
@@ -18543,6 +18724,9 @@
       <c r="E56" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F56" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G56" s="0" t="s">
         <v>371</v>
       </c>
@@ -18566,6 +18750,9 @@
       <c r="E57" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F57" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G57" s="0" t="s">
         <v>373</v>
       </c>
@@ -18589,6 +18776,9 @@
       <c r="E58" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F58" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G58" s="0" t="s">
         <v>375</v>
       </c>
@@ -18612,6 +18802,9 @@
       <c r="E59" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F59" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G59" s="0" t="s">
         <v>377</v>
       </c>
@@ -18635,6 +18828,9 @@
       <c r="E60" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F60" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G60" s="0" t="s">
         <v>379</v>
       </c>
@@ -18658,6 +18854,9 @@
       <c r="E61" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F61" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G61" s="0" t="s">
         <v>381</v>
       </c>
@@ -18681,6 +18880,9 @@
       <c r="E62" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F62" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G62" s="0" t="s">
         <v>383</v>
       </c>
@@ -18704,6 +18906,9 @@
       <c r="E63" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F63" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G63" s="0" t="s">
         <v>385</v>
       </c>
@@ -18727,6 +18932,9 @@
       <c r="E64" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F64" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G64" s="0" t="s">
         <v>387</v>
       </c>
@@ -18750,6 +18958,9 @@
       <c r="E65" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F65" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G65" s="0" t="s">
         <v>389</v>
       </c>
@@ -18773,6 +18984,9 @@
       <c r="E66" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F66" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G66" s="0" t="s">
         <v>391</v>
       </c>
@@ -18796,6 +19010,9 @@
       <c r="E67" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F67" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G67" s="0" t="s">
         <v>393</v>
       </c>
@@ -18819,6 +19036,9 @@
       <c r="E68" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F68" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G68" s="0" t="s">
         <v>395</v>
       </c>
@@ -18842,6 +19062,9 @@
       <c r="E69" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F69" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G69" s="0" t="s">
         <v>397</v>
       </c>
@@ -18865,6 +19088,9 @@
       <c r="E70" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F70" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G70" s="0" t="s">
         <v>399</v>
       </c>
@@ -18888,6 +19114,9 @@
       <c r="E71" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F71" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G71" s="0" t="s">
         <v>401</v>
       </c>
@@ -18911,6 +19140,9 @@
       <c r="E72" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F72" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G72" s="0" t="s">
         <v>403</v>
       </c>
@@ -18934,6 +19166,9 @@
       <c r="E73" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F73" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G73" s="0" t="s">
         <v>405</v>
       </c>
@@ -18957,6 +19192,9 @@
       <c r="E74" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F74" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G74" s="0" t="s">
         <v>407</v>
       </c>
@@ -18980,6 +19218,9 @@
       <c r="E75" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F75" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G75" s="0" t="s">
         <v>409</v>
       </c>
@@ -19003,6 +19244,9 @@
       <c r="E76" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F76" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G76" s="0" t="s">
         <v>411</v>
       </c>
@@ -19026,6 +19270,9 @@
       <c r="E77" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F77" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G77" s="0" t="s">
         <v>413</v>
       </c>
@@ -19049,6 +19296,9 @@
       <c r="E78" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F78" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G78" s="0" t="s">
         <v>415</v>
       </c>
@@ -19072,6 +19322,9 @@
       <c r="E79" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F79" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G79" s="0" t="s">
         <v>417</v>
       </c>
@@ -19095,6 +19348,9 @@
       <c r="E80" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F80" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G80" s="0" t="s">
         <v>419</v>
       </c>
@@ -19118,6 +19374,9 @@
       <c r="E81" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F81" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G81" s="0" t="s">
         <v>421</v>
       </c>
@@ -19141,6 +19400,9 @@
       <c r="E82" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F82" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G82" s="0" t="s">
         <v>423</v>
       </c>
@@ -19164,6 +19426,9 @@
       <c r="E83" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F83" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G83" s="0" t="s">
         <v>425</v>
       </c>
@@ -19187,6 +19452,9 @@
       <c r="E84" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F84" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G84" s="0" t="s">
         <v>427</v>
       </c>
@@ -19210,6 +19478,9 @@
       <c r="E85" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F85" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G85" s="0" t="s">
         <v>429</v>
       </c>
@@ -19233,6 +19504,9 @@
       <c r="E86" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F86" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G86" s="0" t="s">
         <v>431</v>
       </c>
@@ -19256,6 +19530,9 @@
       <c r="E87" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F87" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G87" s="0" t="s">
         <v>433</v>
       </c>
@@ -19279,6 +19556,9 @@
       <c r="E88" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F88" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G88" s="0" t="s">
         <v>435</v>
       </c>
@@ -19302,6 +19582,9 @@
       <c r="E89" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F89" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G89" s="0" t="s">
         <v>437</v>
       </c>
@@ -19325,6 +19608,9 @@
       <c r="E90" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F90" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G90" s="0" t="s">
         <v>439</v>
       </c>
@@ -19348,6 +19634,9 @@
       <c r="E91" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F91" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G91" s="0" t="s">
         <v>441</v>
       </c>
@@ -19371,6 +19660,9 @@
       <c r="E92" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F92" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G92" s="0" t="s">
         <v>443</v>
       </c>
@@ -19394,6 +19686,9 @@
       <c r="E93" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F93" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G93" s="0" t="s">
         <v>445</v>
       </c>
@@ -19417,6 +19712,9 @@
       <c r="E94" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F94" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G94" s="0" t="s">
         <v>447</v>
       </c>
@@ -19440,6 +19738,9 @@
       <c r="E95" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F95" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G95" s="0" t="s">
         <v>449</v>
       </c>
@@ -19463,6 +19764,9 @@
       <c r="E96" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F96" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G96" s="0" t="s">
         <v>451</v>
       </c>
@@ -19486,6 +19790,9 @@
       <c r="E97" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F97" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G97" s="0" t="s">
         <v>453</v>
       </c>
@@ -19509,6 +19816,9 @@
       <c r="E98" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F98" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G98" s="0" t="s">
         <v>456</v>
       </c>
@@ -19532,6 +19842,9 @@
       <c r="E99" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F99" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G99" s="0" t="s">
         <v>458</v>
       </c>
@@ -19555,6 +19868,9 @@
       <c r="E100" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F100" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G100" s="0" t="s">
         <v>460</v>
       </c>
@@ -19578,6 +19894,9 @@
       <c r="E101" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F101" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G101" s="0" t="s">
         <v>462</v>
       </c>
@@ -19601,6 +19920,9 @@
       <c r="E102" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F102" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G102" s="0" t="s">
         <v>464</v>
       </c>
@@ -19624,6 +19946,9 @@
       <c r="E103" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F103" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G103" s="0" t="s">
         <v>466</v>
       </c>
@@ -19647,6 +19972,9 @@
       <c r="E104" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F104" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G104" s="0" t="s">
         <v>468</v>
       </c>
@@ -19670,6 +19998,9 @@
       <c r="E105" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F105" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G105" s="0" t="s">
         <v>470</v>
       </c>
@@ -19693,6 +20024,9 @@
       <c r="E106" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F106" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G106" s="0" t="s">
         <v>472</v>
       </c>
@@ -19716,6 +20050,9 @@
       <c r="E107" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F107" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G107" s="0" t="s">
         <v>474</v>
       </c>
@@ -19739,6 +20076,9 @@
       <c r="E108" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="F108" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G108" s="0" t="s">
         <v>476</v>
       </c>
@@ -19749,7 +20089,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -19764,22 +20104,22 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19861,7 +20201,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/data/20170127_GEP00001/20170127_GEP00001.xlsx
+++ b/data/20170127_GEP00001/20170127_GEP00001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId2"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1791,7 +1791,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1936,14 +1936,14 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2339,23 +2339,25 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="31.77"/>
@@ -3291,8 +3293,8 @@
   </sheetPr>
   <dimension ref="A1:I577"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A474" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16968,7 +16970,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17265,7 +17267,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20105,7 +20107,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20116,7 +20118,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>

--- a/data/20170127_GEP00001/20170127_GEP00001.xlsx
+++ b/data/20170127_GEP00001/20170127_GEP00001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,6 @@
     <sheet name="ExperimentLayout" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Plate" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="SequencingLibrary" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Results" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="469">
   <si>
     <t xml:space="preserve">geid</t>
   </si>
@@ -1435,48 +1434,6 @@
   </si>
   <si>
     <t xml:space="preserve">GE-P6B4-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_clone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_indel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_aminoacid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_impactonprotein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_growthrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">which clones are delivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. frameshift. This could be a ‘notes’ field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICW data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incucyte data, slope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked to tab ‘Tracking’</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1541,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1668,7 +1625,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1763,7 +1720,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1909,8 +1866,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2312,8 +2269,8 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2899,8 +2856,8 @@
   </sheetPr>
   <dimension ref="A1:I577"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16575,8 +16532,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16872,8 +16829,8 @@
   </sheetPr>
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19703,116 +19660,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/data/20170127_GEP00001/20170127_GEP00001.xlsx
+++ b/data/20170127_GEP00001/20170127_GEP00001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId2"/>
@@ -791,6 +791,18 @@
     <t xml:space="preserve">Fluidigm</t>
   </si>
   <si>
+    <t xml:space="preserve">FLD0199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1B11-C</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0193</t>
   </si>
   <si>
@@ -827,16 +839,16 @@
     <t xml:space="preserve">GE-P1B9-C</t>
   </si>
   <si>
-    <t xml:space="preserve">FLD0199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P1B10-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P1B11-C</t>
+    <t xml:space="preserve">FLD0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C11-C</t>
   </si>
   <si>
     <t xml:space="preserve">FLD0201</t>
@@ -851,6 +863,15 @@
     <t xml:space="preserve">GE-P1C5-C</t>
   </si>
   <si>
+    <t xml:space="preserve">gDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C5-G</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0203</t>
   </si>
   <si>
@@ -875,16 +896,10 @@
     <t xml:space="preserve">GE-P1C9-C</t>
   </si>
   <si>
-    <t xml:space="preserve">FLD0207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P1C10-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P1C11-C</t>
+    <t xml:space="preserve">FLD0296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1C9-G</t>
   </si>
   <si>
     <t xml:space="preserve">FLD0209</t>
@@ -893,6 +908,12 @@
     <t xml:space="preserve">GE-P1E2-C</t>
   </si>
   <si>
+    <t xml:space="preserve">FLD0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P1E2-G</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0210</t>
   </si>
   <si>
@@ -935,6 +956,24 @@
     <t xml:space="preserve">GE-P1E9-C</t>
   </si>
   <si>
+    <t xml:space="preserve">FLD0300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P6B4-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D11-C</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0217</t>
   </si>
   <si>
@@ -971,16 +1010,22 @@
     <t xml:space="preserve">GE-P2D9-C</t>
   </si>
   <si>
-    <t xml:space="preserve">FLD0223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P2D10-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P2D11-C</t>
+    <t xml:space="preserve">FLD0298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2D9-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2E11-C</t>
   </si>
   <si>
     <t xml:space="preserve">FLD0225</t>
@@ -1019,16 +1064,16 @@
     <t xml:space="preserve">GE-P2E9-C</t>
   </si>
   <si>
-    <t xml:space="preserve">FLD0231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P2E10-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P2E11-C</t>
+    <t xml:space="preserve">FLD0239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F11-C</t>
   </si>
   <si>
     <t xml:space="preserve">FLD0233</t>
@@ -1061,22 +1106,28 @@
     <t xml:space="preserve">GE-P2F8-C</t>
   </si>
   <si>
+    <t xml:space="preserve">FLD0299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P2F8-G</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0238</t>
   </si>
   <si>
     <t xml:space="preserve">GE-P2F9-C</t>
   </si>
   <si>
-    <t xml:space="preserve">FLD0239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P2F10-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P2F11-C</t>
+    <t xml:space="preserve">FLD0247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B11-C</t>
   </si>
   <si>
     <t xml:space="preserve">FLD0241</t>
@@ -1115,16 +1166,10 @@
     <t xml:space="preserve">GE-P3B9-C</t>
   </si>
   <si>
-    <t xml:space="preserve">FLD0247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P3B10-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P3B11-C</t>
+    <t xml:space="preserve">FLD0290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3B9-G</t>
   </si>
   <si>
     <t xml:space="preserve">FLD0249</t>
@@ -1139,6 +1184,12 @@
     <t xml:space="preserve">GE-P3C3-C</t>
   </si>
   <si>
+    <t xml:space="preserve">FLD0291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3C3-G</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0251</t>
   </si>
   <si>
@@ -1175,6 +1226,18 @@
     <t xml:space="preserve">GE-P3C9-C</t>
   </si>
   <si>
+    <t xml:space="preserve">FLD0263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D10-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD0264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D11-C</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0257</t>
   </si>
   <si>
@@ -1211,16 +1274,10 @@
     <t xml:space="preserve">GE-P3D9-C</t>
   </si>
   <si>
-    <t xml:space="preserve">FLD0263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P3D10-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P3D11-C</t>
+    <t xml:space="preserve">FLD0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P3D9-G</t>
   </si>
   <si>
     <t xml:space="preserve">FLD0265</t>
@@ -1247,12 +1304,24 @@
     <t xml:space="preserve">GE-P4B5-C</t>
   </si>
   <si>
+    <t xml:space="preserve">FLD0293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B5-G</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0269</t>
   </si>
   <si>
     <t xml:space="preserve">GE-P4B6-C</t>
   </si>
   <si>
+    <t xml:space="preserve">FLD0294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE-P4B6-G</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLD0270</t>
   </si>
   <si>
@@ -1365,75 +1434,6 @@
   </si>
   <si>
     <t xml:space="preserve">GE-P4D9-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gDNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P3B9-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P3C3-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P3D9-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P4B5-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P4B6-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P1C5-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P1C9-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P1E2-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P2D9-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P2F8-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD0300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE-P6B4-G</t>
   </si>
 </sst>
 </file>
@@ -1541,18 +1541,18 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,7 +1610,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1625,17 +1625,17 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,7 +1705,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1720,17 +1720,17 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +1851,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1866,15 +1866,15 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2254,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2269,29 +2269,27 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="11" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="31.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="17" min="11" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +2839,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2856,19 +2854,19 @@
   </sheetPr>
   <dimension ref="A1:I577"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G113" activeCellId="0" sqref="G113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16517,7 +16515,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -16532,17 +16530,17 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16814,7 +16812,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -16829,18 +16827,18 @@
   </sheetPr>
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16874,7 +16872,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>251</v>
@@ -16900,7 +16898,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>251</v>
@@ -16926,7 +16924,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>251</v>
@@ -16952,7 +16950,7 @@
         <v>111</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>251</v>
@@ -16978,7 +16976,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>251</v>
@@ -17004,7 +17002,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>251</v>
@@ -17030,7 +17028,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>251</v>
@@ -17056,7 +17054,7 @@
         <v>111</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>251</v>
@@ -17082,7 +17080,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>251</v>
@@ -17108,7 +17106,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>251</v>
@@ -17134,7 +17132,7 @@
         <v>111</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>251</v>
@@ -17160,7 +17158,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>251</v>
@@ -17186,10 +17184,10 @@
         <v>111</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>252</v>
@@ -17201,10 +17199,10 @@
         <v>10</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17212,7 +17210,7 @@
         <v>111</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>251</v>
@@ -17227,10 +17225,10 @@
         <v>10</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17238,7 +17236,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>251</v>
@@ -17253,10 +17251,10 @@
         <v>10</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17264,7 +17262,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>251</v>
@@ -17279,10 +17277,10 @@
         <v>10</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17290,7 +17288,7 @@
         <v>111</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>251</v>
@@ -17305,10 +17303,10 @@
         <v>10</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17316,10 +17314,10 @@
         <v>111</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>252</v>
@@ -17331,10 +17329,10 @@
         <v>10</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17342,7 +17340,7 @@
         <v>111</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>251</v>
@@ -17357,10 +17355,10 @@
         <v>10</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17368,10 +17366,10 @@
         <v>111</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>252</v>
@@ -17383,10 +17381,10 @@
         <v>10</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17394,7 +17392,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>251</v>
@@ -17409,10 +17407,10 @@
         <v>10</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17420,7 +17418,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>251</v>
@@ -17435,10 +17433,10 @@
         <v>10</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17446,7 +17444,7 @@
         <v>111</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>251</v>
@@ -17461,10 +17459,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17472,7 +17470,7 @@
         <v>111</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>251</v>
@@ -17487,18 +17485,18 @@
         <v>10</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>251</v>
@@ -17513,18 +17511,18 @@
         <v>10</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>251</v>
@@ -17539,18 +17537,18 @@
         <v>10</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>251</v>
@@ -17565,21 +17563,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>252</v>
@@ -17591,10 +17589,10 @@
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17602,7 +17600,7 @@
         <v>213</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>251</v>
@@ -17617,10 +17615,10 @@
         <v>10</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17628,7 +17626,7 @@
         <v>213</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>251</v>
@@ -17643,10 +17641,10 @@
         <v>10</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17654,7 +17652,7 @@
         <v>213</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>251</v>
@@ -17669,10 +17667,10 @@
         <v>10</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17680,7 +17678,7 @@
         <v>213</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>251</v>
@@ -17695,10 +17693,10 @@
         <v>10</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17706,7 +17704,7 @@
         <v>213</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>251</v>
@@ -17721,10 +17719,10 @@
         <v>10</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17732,7 +17730,7 @@
         <v>213</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>251</v>
@@ -17747,10 +17745,10 @@
         <v>10</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17758,7 +17756,7 @@
         <v>213</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>251</v>
@@ -17773,10 +17771,10 @@
         <v>10</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17784,7 +17782,7 @@
         <v>213</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>251</v>
@@ -17799,10 +17797,10 @@
         <v>10</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17810,10 +17808,10 @@
         <v>213</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>252</v>
@@ -17825,10 +17823,10 @@
         <v>10</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17836,7 +17834,7 @@
         <v>213</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>251</v>
@@ -17851,10 +17849,10 @@
         <v>10</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17862,7 +17860,7 @@
         <v>213</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>251</v>
@@ -17877,10 +17875,10 @@
         <v>10</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17888,7 +17886,7 @@
         <v>213</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>251</v>
@@ -17903,10 +17901,10 @@
         <v>10</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17914,7 +17912,7 @@
         <v>213</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>251</v>
@@ -17929,10 +17927,10 @@
         <v>10</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17940,7 +17938,7 @@
         <v>213</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>251</v>
@@ -17955,10 +17953,10 @@
         <v>10</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17966,7 +17964,7 @@
         <v>213</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>251</v>
@@ -17981,10 +17979,10 @@
         <v>10</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17992,7 +17990,7 @@
         <v>213</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>251</v>
@@ -18007,10 +18005,10 @@
         <v>10</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18018,7 +18016,7 @@
         <v>213</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>251</v>
@@ -18033,10 +18031,10 @@
         <v>10</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18044,7 +18042,7 @@
         <v>213</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>251</v>
@@ -18059,10 +18057,10 @@
         <v>10</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18070,7 +18068,7 @@
         <v>213</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>251</v>
@@ -18085,10 +18083,10 @@
         <v>10</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18096,7 +18094,7 @@
         <v>213</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>251</v>
@@ -18111,18 +18109,18 @@
         <v>10</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>251</v>
@@ -18137,18 +18135,18 @@
         <v>10</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>251</v>
@@ -18163,18 +18161,18 @@
         <v>10</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>251</v>
@@ -18189,18 +18187,18 @@
         <v>10</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>251</v>
@@ -18215,21 +18213,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>252</v>
@@ -18241,18 +18239,18 @@
         <v>10</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>251</v>
@@ -18267,10 +18265,10 @@
         <v>10</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18278,7 +18276,7 @@
         <v>214</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>251</v>
@@ -18293,10 +18291,10 @@
         <v>10</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18304,7 +18302,7 @@
         <v>214</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>251</v>
@@ -18319,10 +18317,10 @@
         <v>10</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18330,7 +18328,7 @@
         <v>214</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>251</v>
@@ -18345,10 +18343,10 @@
         <v>10</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18356,7 +18354,7 @@
         <v>214</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>251</v>
@@ -18371,10 +18369,10 @@
         <v>10</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18382,7 +18380,7 @@
         <v>214</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>251</v>
@@ -18397,10 +18395,10 @@
         <v>10</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18408,7 +18406,7 @@
         <v>214</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>251</v>
@@ -18423,10 +18421,10 @@
         <v>10</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18434,7 +18432,7 @@
         <v>214</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>251</v>
@@ -18449,10 +18447,10 @@
         <v>10</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18460,7 +18458,7 @@
         <v>214</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>251</v>
@@ -18475,10 +18473,10 @@
         <v>10</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18486,10 +18484,10 @@
         <v>214</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>252</v>
@@ -18501,10 +18499,10 @@
         <v>10</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18512,7 +18510,7 @@
         <v>214</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>251</v>
@@ -18527,10 +18525,10 @@
         <v>10</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18538,7 +18536,7 @@
         <v>214</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>251</v>
@@ -18553,10 +18551,10 @@
         <v>10</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18564,10 +18562,10 @@
         <v>214</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>252</v>
@@ -18579,10 +18577,10 @@
         <v>10</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18590,7 +18588,7 @@
         <v>214</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>251</v>
@@ -18605,10 +18603,10 @@
         <v>10</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18616,7 +18614,7 @@
         <v>214</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>251</v>
@@ -18631,10 +18629,10 @@
         <v>10</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18642,7 +18640,7 @@
         <v>214</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>251</v>
@@ -18657,10 +18655,10 @@
         <v>10</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18668,7 +18666,7 @@
         <v>214</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>251</v>
@@ -18683,10 +18681,10 @@
         <v>10</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18694,7 +18692,7 @@
         <v>214</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>251</v>
@@ -18709,10 +18707,10 @@
         <v>10</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18720,7 +18718,7 @@
         <v>214</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>251</v>
@@ -18735,18 +18733,18 @@
         <v>10</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>251</v>
@@ -18761,18 +18759,18 @@
         <v>10</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>251</v>
@@ -18787,18 +18785,18 @@
         <v>10</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>251</v>
@@ -18813,18 +18811,18 @@
         <v>10</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>251</v>
@@ -18839,18 +18837,18 @@
         <v>10</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>251</v>
@@ -18865,18 +18863,18 @@
         <v>10</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>251</v>
@@ -18891,18 +18889,18 @@
         <v>10</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>251</v>
@@ -18917,18 +18915,18 @@
         <v>10</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>251</v>
@@ -18943,21 +18941,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>252</v>
@@ -18969,10 +18967,10 @@
         <v>10</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18980,7 +18978,7 @@
         <v>215</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>251</v>
@@ -18995,10 +18993,10 @@
         <v>10</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19006,7 +19004,7 @@
         <v>215</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>251</v>
@@ -19021,10 +19019,10 @@
         <v>10</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19032,7 +19030,7 @@
         <v>215</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>251</v>
@@ -19047,10 +19045,10 @@
         <v>10</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19058,7 +19056,7 @@
         <v>215</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>251</v>
@@ -19073,10 +19071,10 @@
         <v>10</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19084,10 +19082,10 @@
         <v>215</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>252</v>
@@ -19099,10 +19097,10 @@
         <v>10</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19110,7 +19108,7 @@
         <v>215</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>251</v>
@@ -19125,10 +19123,10 @@
         <v>10</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19136,10 +19134,10 @@
         <v>215</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>252</v>
@@ -19151,10 +19149,10 @@
         <v>10</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19162,7 +19160,7 @@
         <v>215</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>251</v>
@@ -19177,10 +19175,10 @@
         <v>10</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19188,7 +19186,7 @@
         <v>215</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>251</v>
@@ -19203,10 +19201,10 @@
         <v>10</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19214,7 +19212,7 @@
         <v>215</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>251</v>
@@ -19229,10 +19227,10 @@
         <v>10</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19240,7 +19238,7 @@
         <v>215</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>251</v>
@@ -19255,10 +19253,10 @@
         <v>10</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19266,7 +19264,7 @@
         <v>215</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>251</v>
@@ -19281,10 +19279,10 @@
         <v>10</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19292,7 +19290,7 @@
         <v>215</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>251</v>
@@ -19307,10 +19305,10 @@
         <v>10</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19318,7 +19316,7 @@
         <v>215</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>251</v>
@@ -19333,10 +19331,10 @@
         <v>10</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19344,7 +19342,7 @@
         <v>215</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>251</v>
@@ -19359,21 +19357,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>252</v>
@@ -19393,13 +19391,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>252</v>
@@ -19419,13 +19417,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>252</v>
@@ -19448,10 +19446,10 @@
         <v>215</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>252</v>
@@ -19474,10 +19472,10 @@
         <v>215</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>252</v>
@@ -19497,13 +19495,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>252</v>
@@ -19523,13 +19521,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>252</v>
@@ -19549,13 +19547,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>252</v>
@@ -19575,13 +19573,13 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>252</v>
@@ -19601,13 +19599,13 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>252</v>
@@ -19627,13 +19625,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>252</v>
@@ -19654,7 +19652,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
